--- a/data/new_data.xlsx
+++ b/data/new_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akira\Documents\GitHub\Visitor-prediction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044847E5-6B9D-4993-B83B-D37321CE5C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB0C7E8-9488-4F51-8213-17D996C5AF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{66FE3B0E-8228-4484-A55C-768F26A6B1F7}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="7850" windowHeight="11370" xr2:uid="{66FE3B0E-8228-4484-A55C-768F26A6B1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="new_data" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4749" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4493" uniqueCount="3">
   <si>
     <t>timestemp</t>
   </si>
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9EECFBA-3846-46D1-8C29-0E3A213EF95A}">
   <dimension ref="A1:B4897"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B402" sqref="B402"/>
+    <sheetView tabSelected="1" topLeftCell="A4672" workbookViewId="0">
+      <selection activeCell="B4678" sqref="B4678"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37835,32 +37835,32 @@
       <c r="A4674" s="1">
         <v>45232.395833333336</v>
       </c>
-      <c r="B4674" t="s">
-        <v>2</v>
+      <c r="B4674">
+        <v>1</v>
       </c>
     </row>
     <row r="4675" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4675" s="1">
         <v>45232.447916666664</v>
       </c>
-      <c r="B4675" t="s">
-        <v>2</v>
+      <c r="B4675">
+        <v>7</v>
       </c>
     </row>
     <row r="4676" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4676" s="1">
         <v>45232.572916666664</v>
       </c>
-      <c r="B4676" t="s">
-        <v>2</v>
+      <c r="B4676">
+        <v>6</v>
       </c>
     </row>
     <row r="4677" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4677" s="1">
         <v>45232.677083333336</v>
       </c>
-      <c r="B4677" t="s">
-        <v>2</v>
+      <c r="B4677">
+        <v>7</v>
       </c>
     </row>
     <row r="4678" spans="1:2" x14ac:dyDescent="0.35">
@@ -38027,7 +38027,7 @@
       <c r="A4698" s="1">
         <v>45235.395833333336</v>
       </c>
-      <c r="B4698" t="s">
+      <c r="B4698">
         <v>2</v>
       </c>
     </row>
@@ -38035,24 +38035,24 @@
       <c r="A4699" s="1">
         <v>45235.447916666664</v>
       </c>
-      <c r="B4699" t="s">
-        <v>2</v>
+      <c r="B4699">
+        <v>6</v>
       </c>
     </row>
     <row r="4700" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4700" s="1">
         <v>45235.572916666664</v>
       </c>
-      <c r="B4700" t="s">
-        <v>2</v>
+      <c r="B4700">
+        <v>8</v>
       </c>
     </row>
     <row r="4701" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4701" s="1">
         <v>45235.677083333336</v>
       </c>
-      <c r="B4701" t="s">
-        <v>2</v>
+      <c r="B4701">
+        <v>5</v>
       </c>
     </row>
     <row r="4702" spans="1:2" x14ac:dyDescent="0.35">
@@ -38091,56 +38091,56 @@
       <c r="A4706" s="1">
         <v>45236.395833333336</v>
       </c>
-      <c r="B4706" t="s">
-        <v>2</v>
+      <c r="B4706">
+        <v>1</v>
       </c>
     </row>
     <row r="4707" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4707" s="1">
         <v>45236.447916666664</v>
       </c>
-      <c r="B4707" t="s">
-        <v>2</v>
+      <c r="B4707">
+        <v>5</v>
       </c>
     </row>
     <row r="4708" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4708" s="1">
         <v>45236.572916666664</v>
       </c>
-      <c r="B4708" t="s">
-        <v>2</v>
+      <c r="B4708">
+        <v>9</v>
       </c>
     </row>
     <row r="4709" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4709" s="1">
         <v>45236.677083333336</v>
       </c>
-      <c r="B4709" t="s">
-        <v>2</v>
+      <c r="B4709">
+        <v>9</v>
       </c>
     </row>
     <row r="4710" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4710" s="1">
         <v>45236.739583333336</v>
       </c>
-      <c r="B4710" t="s">
-        <v>2</v>
+      <c r="B4710">
+        <v>7</v>
       </c>
     </row>
     <row r="4711" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4711" s="1">
         <v>45236.75</v>
       </c>
-      <c r="B4711" t="s">
-        <v>2</v>
+      <c r="B4711">
+        <v>5</v>
       </c>
     </row>
     <row r="4712" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4712" s="1">
         <v>45236.770833333336</v>
       </c>
-      <c r="B4712" t="s">
-        <v>2</v>
+      <c r="B4712">
+        <v>4</v>
       </c>
     </row>
     <row r="4713" spans="1:2" x14ac:dyDescent="0.35">
@@ -38155,39 +38155,39 @@
       <c r="A4714" s="1">
         <v>45237.395833333336</v>
       </c>
-      <c r="B4714" t="s">
-        <v>2</v>
+      <c r="B4714">
+        <v>5</v>
       </c>
     </row>
     <row r="4715" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4715" s="1">
         <v>45237.447916666664</v>
       </c>
-      <c r="B4715" t="s">
-        <v>2</v>
+      <c r="B4715">
+        <v>10</v>
       </c>
     </row>
     <row r="4716" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4716" s="1">
         <v>45237.572916666664</v>
       </c>
-      <c r="B4716" t="s">
-        <v>2</v>
+      <c r="B4716">
+        <v>8</v>
       </c>
     </row>
     <row r="4717" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4717" s="1">
         <v>45237.677083333336</v>
       </c>
-      <c r="B4717" t="s">
-        <v>2</v>
+      <c r="B4717">
+        <v>10</v>
       </c>
     </row>
     <row r="4718" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4718" s="1">
         <v>45237.739583333336</v>
       </c>
-      <c r="B4718" t="s">
+      <c r="B4718">
         <v>2</v>
       </c>
     </row>
@@ -38195,7 +38195,7 @@
       <c r="A4719" s="1">
         <v>45237.75</v>
       </c>
-      <c r="B4719" t="s">
+      <c r="B4719">
         <v>2</v>
       </c>
     </row>
@@ -38203,119 +38203,119 @@
       <c r="A4720" s="1">
         <v>45237.770833333336</v>
       </c>
-      <c r="B4720" t="s">
-        <v>2</v>
+      <c r="B4720">
+        <v>1</v>
       </c>
     </row>
     <row r="4721" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4721" s="1">
         <v>45237.78125</v>
       </c>
-      <c r="B4721" t="s">
-        <v>2</v>
+      <c r="B4721">
+        <v>1</v>
       </c>
     </row>
     <row r="4722" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4722" s="1">
         <v>45238.395833333336</v>
       </c>
-      <c r="B4722" t="s">
-        <v>2</v>
+      <c r="B4722">
+        <v>3</v>
       </c>
     </row>
     <row r="4723" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4723" s="1">
         <v>45238.447916666664</v>
       </c>
-      <c r="B4723" t="s">
-        <v>2</v>
+      <c r="B4723">
+        <v>8</v>
       </c>
     </row>
     <row r="4724" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4724" s="1">
         <v>45238.572916666664</v>
       </c>
-      <c r="B4724" t="s">
-        <v>2</v>
+      <c r="B4724">
+        <v>16</v>
       </c>
     </row>
     <row r="4725" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4725" s="1">
         <v>45238.677083333336</v>
       </c>
-      <c r="B4725" t="s">
-        <v>2</v>
+      <c r="B4725">
+        <v>12</v>
       </c>
     </row>
     <row r="4726" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4726" s="1">
         <v>45238.739583333336</v>
       </c>
-      <c r="B4726" t="s">
-        <v>2</v>
+      <c r="B4726">
+        <v>7</v>
       </c>
     </row>
     <row r="4727" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4727" s="1">
         <v>45238.75</v>
       </c>
-      <c r="B4727" t="s">
-        <v>2</v>
+      <c r="B4727">
+        <v>3</v>
       </c>
     </row>
     <row r="4728" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4728" s="1">
         <v>45238.770833333336</v>
       </c>
-      <c r="B4728" t="s">
-        <v>2</v>
+      <c r="B4728">
+        <v>3</v>
       </c>
     </row>
     <row r="4729" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4729" s="1">
         <v>45238.78125</v>
       </c>
-      <c r="B4729" t="s">
-        <v>2</v>
+      <c r="B4729">
+        <v>3</v>
       </c>
     </row>
     <row r="4730" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4730" s="1">
         <v>45239.395833333336</v>
       </c>
-      <c r="B4730" t="s">
-        <v>2</v>
+      <c r="B4730">
+        <v>1</v>
       </c>
     </row>
     <row r="4731" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4731" s="1">
         <v>45239.447916666664</v>
       </c>
-      <c r="B4731" t="s">
-        <v>2</v>
+      <c r="B4731">
+        <v>7</v>
       </c>
     </row>
     <row r="4732" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4732" s="1">
         <v>45239.572916666664</v>
       </c>
-      <c r="B4732" t="s">
-        <v>2</v>
+      <c r="B4732">
+        <v>13</v>
       </c>
     </row>
     <row r="4733" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4733" s="1">
         <v>45239.677083333336</v>
       </c>
-      <c r="B4733" t="s">
-        <v>2</v>
+      <c r="B4733">
+        <v>7</v>
       </c>
     </row>
     <row r="4734" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4734" s="1">
         <v>45239.739583333336</v>
       </c>
-      <c r="B4734" t="s">
+      <c r="B4734">
         <v>2</v>
       </c>
     </row>
@@ -38323,7 +38323,7 @@
       <c r="A4735" s="1">
         <v>45239.75</v>
       </c>
-      <c r="B4735" t="s">
+      <c r="B4735">
         <v>2</v>
       </c>
     </row>
@@ -38331,7 +38331,7 @@
       <c r="A4736" s="1">
         <v>45239.770833333336</v>
       </c>
-      <c r="B4736" t="s">
+      <c r="B4736">
         <v>2</v>
       </c>
     </row>
@@ -38339,7 +38339,7 @@
       <c r="A4737" s="1">
         <v>45239.78125</v>
       </c>
-      <c r="B4737" t="s">
+      <c r="B4737">
         <v>2</v>
       </c>
     </row>
@@ -38347,7 +38347,7 @@
       <c r="A4738" s="1">
         <v>45240.395833333336</v>
       </c>
-      <c r="B4738" t="s">
+      <c r="B4738">
         <v>2</v>
       </c>
     </row>
@@ -38355,15 +38355,15 @@
       <c r="A4739" s="1">
         <v>45240.447916666664</v>
       </c>
-      <c r="B4739" t="s">
-        <v>2</v>
+      <c r="B4739">
+        <v>5</v>
       </c>
     </row>
     <row r="4740" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4740" s="1">
         <v>45240.572916666664</v>
       </c>
-      <c r="B4740" t="s">
+      <c r="B4740">
         <v>2</v>
       </c>
     </row>
@@ -38371,8 +38371,8 @@
       <c r="A4741" s="1">
         <v>45240.677083333336</v>
       </c>
-      <c r="B4741" t="s">
-        <v>2</v>
+      <c r="B4741">
+        <v>4</v>
       </c>
     </row>
     <row r="4742" spans="1:2" x14ac:dyDescent="0.35">
@@ -38539,40 +38539,40 @@
       <c r="A4762" s="1">
         <v>45243.395833333336</v>
       </c>
-      <c r="B4762" t="s">
-        <v>2</v>
+      <c r="B4762">
+        <v>1</v>
       </c>
     </row>
     <row r="4763" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4763" s="1">
         <v>45243.447916666664</v>
       </c>
-      <c r="B4763" t="s">
-        <v>2</v>
+      <c r="B4763">
+        <v>7</v>
       </c>
     </row>
     <row r="4764" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4764" s="1">
         <v>45243.572916666664</v>
       </c>
-      <c r="B4764" t="s">
-        <v>2</v>
+      <c r="B4764">
+        <v>10</v>
       </c>
     </row>
     <row r="4765" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4765" s="1">
         <v>45243.677083333336</v>
       </c>
-      <c r="B4765" t="s">
-        <v>2</v>
+      <c r="B4765">
+        <v>8</v>
       </c>
     </row>
     <row r="4766" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4766" s="1">
         <v>45243.739583333336</v>
       </c>
-      <c r="B4766" t="s">
-        <v>2</v>
+      <c r="B4766">
+        <v>4</v>
       </c>
     </row>
     <row r="4767" spans="1:2" x14ac:dyDescent="0.35">
@@ -38587,7 +38587,7 @@
       <c r="A4768" s="1">
         <v>45243.770833333336</v>
       </c>
-      <c r="B4768" t="s">
+      <c r="B4768">
         <v>2</v>
       </c>
     </row>
@@ -38603,7 +38603,7 @@
       <c r="A4770" s="1">
         <v>45244.395833333336</v>
       </c>
-      <c r="B4770" t="s">
+      <c r="B4770">
         <v>2</v>
       </c>
     </row>
@@ -38611,55 +38611,55 @@
       <c r="A4771" s="1">
         <v>45244.447916666664</v>
       </c>
-      <c r="B4771" t="s">
-        <v>2</v>
+      <c r="B4771">
+        <v>6</v>
       </c>
     </row>
     <row r="4772" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4772" s="1">
         <v>45244.572916666664</v>
       </c>
-      <c r="B4772" t="s">
-        <v>2</v>
+      <c r="B4772">
+        <v>9</v>
       </c>
     </row>
     <row r="4773" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4773" s="1">
         <v>45244.677083333336</v>
       </c>
-      <c r="B4773" t="s">
-        <v>2</v>
+      <c r="B4773">
+        <v>12</v>
       </c>
     </row>
     <row r="4774" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4774" s="1">
         <v>45244.739583333336</v>
       </c>
-      <c r="B4774" t="s">
-        <v>2</v>
+      <c r="B4774">
+        <v>7</v>
       </c>
     </row>
     <row r="4775" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4775" s="1">
         <v>45244.75</v>
       </c>
-      <c r="B4775" t="s">
-        <v>2</v>
+      <c r="B4775">
+        <v>4</v>
       </c>
     </row>
     <row r="4776" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4776" s="1">
         <v>45244.770833333336</v>
       </c>
-      <c r="B4776" t="s">
-        <v>2</v>
+      <c r="B4776">
+        <v>4</v>
       </c>
     </row>
     <row r="4777" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4777" s="1">
         <v>45244.78125</v>
       </c>
-      <c r="B4777" t="s">
+      <c r="B4777">
         <v>2</v>
       </c>
     </row>
@@ -38667,16 +38667,16 @@
       <c r="A4778" s="1">
         <v>45245.395833333336</v>
       </c>
-      <c r="B4778" t="s">
-        <v>2</v>
+      <c r="B4778">
+        <v>4</v>
       </c>
     </row>
     <row r="4779" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4779" s="1">
         <v>45245.447916666664</v>
       </c>
-      <c r="B4779" t="s">
-        <v>2</v>
+      <c r="B4779">
+        <v>13</v>
       </c>
     </row>
     <row r="4780" spans="1:2" x14ac:dyDescent="0.35">
@@ -38747,47 +38747,47 @@
       <c r="A4788" s="1">
         <v>45246.572916666664</v>
       </c>
-      <c r="B4788" t="s">
-        <v>2</v>
+      <c r="B4788">
+        <v>7</v>
       </c>
     </row>
     <row r="4789" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4789" s="1">
         <v>45246.677083333336</v>
       </c>
-      <c r="B4789" t="s">
-        <v>2</v>
+      <c r="B4789">
+        <v>10</v>
       </c>
     </row>
     <row r="4790" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4790" s="1">
         <v>45246.739583333336</v>
       </c>
-      <c r="B4790" t="s">
-        <v>2</v>
+      <c r="B4790">
+        <v>8</v>
       </c>
     </row>
     <row r="4791" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4791" s="1">
         <v>45246.75</v>
       </c>
-      <c r="B4791" t="s">
-        <v>2</v>
+      <c r="B4791">
+        <v>7</v>
       </c>
     </row>
     <row r="4792" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4792" s="1">
         <v>45246.770833333336</v>
       </c>
-      <c r="B4792" t="s">
-        <v>2</v>
+      <c r="B4792">
+        <v>5</v>
       </c>
     </row>
     <row r="4793" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4793" s="1">
         <v>45246.78125</v>
       </c>
-      <c r="B4793" t="s">
+      <c r="B4793">
         <v>2</v>
       </c>
     </row>
@@ -38803,24 +38803,24 @@
       <c r="A4795" s="1">
         <v>45247.447916666664</v>
       </c>
-      <c r="B4795" t="s">
-        <v>2</v>
+      <c r="B4795">
+        <v>1</v>
       </c>
     </row>
     <row r="4796" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4796" s="1">
         <v>45247.572916666664</v>
       </c>
-      <c r="B4796" t="s">
-        <v>2</v>
+      <c r="B4796">
+        <v>3</v>
       </c>
     </row>
     <row r="4797" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4797" s="1">
         <v>45247.677083333336</v>
       </c>
-      <c r="B4797" t="s">
-        <v>2</v>
+      <c r="B4797">
+        <v>7</v>
       </c>
     </row>
     <row r="4798" spans="1:2" x14ac:dyDescent="0.35">
@@ -38987,40 +38987,40 @@
       <c r="A4818" s="1">
         <v>45250.395833333336</v>
       </c>
-      <c r="B4818" t="s">
-        <v>2</v>
+      <c r="B4818">
+        <v>1</v>
       </c>
     </row>
     <row r="4819" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4819" s="1">
         <v>45250.447916666664</v>
       </c>
-      <c r="B4819" t="s">
-        <v>2</v>
+      <c r="B4819">
+        <v>1</v>
       </c>
     </row>
     <row r="4820" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4820" s="1">
         <v>45250.572916666664</v>
       </c>
-      <c r="B4820" t="s">
-        <v>2</v>
+      <c r="B4820">
+        <v>3</v>
       </c>
     </row>
     <row r="4821" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4821" s="1">
         <v>45250.677083333336</v>
       </c>
-      <c r="B4821" t="s">
-        <v>2</v>
+      <c r="B4821">
+        <v>5</v>
       </c>
     </row>
     <row r="4822" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4822" s="1">
         <v>45250.739583333336</v>
       </c>
-      <c r="B4822" t="s">
-        <v>2</v>
+      <c r="B4822">
+        <v>4</v>
       </c>
     </row>
     <row r="4823" spans="1:2" x14ac:dyDescent="0.35">
@@ -39035,8 +39035,8 @@
       <c r="A4824" s="1">
         <v>45250.770833333336</v>
       </c>
-      <c r="B4824" t="s">
-        <v>2</v>
+      <c r="B4824">
+        <v>4</v>
       </c>
     </row>
     <row r="4825" spans="1:2" x14ac:dyDescent="0.35">
@@ -39051,40 +39051,40 @@
       <c r="A4826" s="1">
         <v>45251.395833333336</v>
       </c>
-      <c r="B4826" t="s">
-        <v>2</v>
+      <c r="B4826">
+        <v>5</v>
       </c>
     </row>
     <row r="4827" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4827" s="1">
         <v>45251.447916666664</v>
       </c>
-      <c r="B4827" t="s">
-        <v>2</v>
+      <c r="B4827">
+        <v>8</v>
       </c>
     </row>
     <row r="4828" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4828" s="1">
         <v>45251.572916666664</v>
       </c>
-      <c r="B4828" t="s">
-        <v>2</v>
+      <c r="B4828">
+        <v>9</v>
       </c>
     </row>
     <row r="4829" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4829" s="1">
         <v>45251.677083333336</v>
       </c>
-      <c r="B4829" t="s">
-        <v>2</v>
+      <c r="B4829">
+        <v>15</v>
       </c>
     </row>
     <row r="4830" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4830" s="1">
         <v>45251.739583333336</v>
       </c>
-      <c r="B4830" t="s">
-        <v>2</v>
+      <c r="B4830">
+        <v>16</v>
       </c>
     </row>
     <row r="4831" spans="1:2" x14ac:dyDescent="0.35">
@@ -39115,40 +39115,40 @@
       <c r="A4834" s="1">
         <v>45252.395833333336</v>
       </c>
-      <c r="B4834" t="s">
-        <v>2</v>
+      <c r="B4834">
+        <v>10</v>
       </c>
     </row>
     <row r="4835" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4835" s="1">
         <v>45252.447916666664</v>
       </c>
-      <c r="B4835" t="s">
-        <v>2</v>
+      <c r="B4835">
+        <v>15</v>
       </c>
     </row>
     <row r="4836" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4836" s="1">
         <v>45252.572916666664</v>
       </c>
-      <c r="B4836" t="s">
-        <v>2</v>
+      <c r="B4836">
+        <v>18</v>
       </c>
     </row>
     <row r="4837" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4837" s="1">
         <v>45252.677083333336</v>
       </c>
-      <c r="B4837" t="s">
-        <v>2</v>
+      <c r="B4837">
+        <v>20</v>
       </c>
     </row>
     <row r="4838" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4838" s="1">
         <v>45252.739583333336</v>
       </c>
-      <c r="B4838" t="s">
-        <v>2</v>
+      <c r="B4838">
+        <v>12</v>
       </c>
     </row>
     <row r="4839" spans="1:2" x14ac:dyDescent="0.35">
@@ -39163,8 +39163,8 @@
       <c r="A4840" s="1">
         <v>45252.770833333336</v>
       </c>
-      <c r="B4840" t="s">
-        <v>2</v>
+      <c r="B4840">
+        <v>7</v>
       </c>
     </row>
     <row r="4841" spans="1:2" x14ac:dyDescent="0.35">
@@ -39179,40 +39179,40 @@
       <c r="A4842" s="1">
         <v>45253.395833333336</v>
       </c>
-      <c r="B4842" t="s">
-        <v>2</v>
+      <c r="B4842">
+        <v>4</v>
       </c>
     </row>
     <row r="4843" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4843" s="1">
         <v>45253.447916666664</v>
       </c>
-      <c r="B4843" t="s">
-        <v>2</v>
+      <c r="B4843">
+        <v>16</v>
       </c>
     </row>
     <row r="4844" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4844" s="1">
         <v>45253.572916666664</v>
       </c>
-      <c r="B4844" t="s">
-        <v>2</v>
+      <c r="B4844">
+        <v>18</v>
       </c>
     </row>
     <row r="4845" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4845" s="1">
         <v>45253.677083333336</v>
       </c>
-      <c r="B4845" t="s">
-        <v>2</v>
+      <c r="B4845">
+        <v>20</v>
       </c>
     </row>
     <row r="4846" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4846" s="1">
         <v>45253.739583333336</v>
       </c>
-      <c r="B4846" t="s">
-        <v>2</v>
+      <c r="B4846">
+        <v>17</v>
       </c>
     </row>
     <row r="4847" spans="1:2" x14ac:dyDescent="0.35">
@@ -39227,8 +39227,8 @@
       <c r="A4848" s="1">
         <v>45253.770833333336</v>
       </c>
-      <c r="B4848" t="s">
-        <v>2</v>
+      <c r="B4848">
+        <v>10</v>
       </c>
     </row>
     <row r="4849" spans="1:2" x14ac:dyDescent="0.35">
@@ -39243,32 +39243,32 @@
       <c r="A4850" s="1">
         <v>45254.395833333336</v>
       </c>
-      <c r="B4850" t="s">
-        <v>2</v>
+      <c r="B4850">
+        <v>3</v>
       </c>
     </row>
     <row r="4851" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4851" s="1">
         <v>45254.447916666664</v>
       </c>
-      <c r="B4851" t="s">
-        <v>2</v>
+      <c r="B4851">
+        <v>4</v>
       </c>
     </row>
     <row r="4852" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4852" s="1">
         <v>45254.572916666664</v>
       </c>
-      <c r="B4852" t="s">
-        <v>2</v>
+      <c r="B4852">
+        <v>8</v>
       </c>
     </row>
     <row r="4853" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4853" s="1">
         <v>45254.677083333336</v>
       </c>
-      <c r="B4853" t="s">
-        <v>2</v>
+      <c r="B4853">
+        <v>13</v>
       </c>
     </row>
     <row r="4854" spans="1:2" x14ac:dyDescent="0.35">
@@ -39435,40 +39435,40 @@
       <c r="A4874" s="1">
         <v>45257.395833333336</v>
       </c>
-      <c r="B4874" t="s">
-        <v>2</v>
+      <c r="B4874">
+        <v>3</v>
       </c>
     </row>
     <row r="4875" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4875" s="1">
         <v>45257.447916666664</v>
       </c>
-      <c r="B4875" t="s">
-        <v>2</v>
+      <c r="B4875">
+        <v>5</v>
       </c>
     </row>
     <row r="4876" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4876" s="1">
         <v>45257.572916666664</v>
       </c>
-      <c r="B4876" t="s">
-        <v>2</v>
+      <c r="B4876">
+        <v>7</v>
       </c>
     </row>
     <row r="4877" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4877" s="1">
         <v>45257.677083333336</v>
       </c>
-      <c r="B4877" t="s">
-        <v>2</v>
+      <c r="B4877">
+        <v>5</v>
       </c>
     </row>
     <row r="4878" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4878" s="1">
         <v>45257.739583333336</v>
       </c>
-      <c r="B4878" t="s">
-        <v>2</v>
+      <c r="B4878">
+        <v>4</v>
       </c>
     </row>
     <row r="4879" spans="1:2" x14ac:dyDescent="0.35">
@@ -39483,7 +39483,7 @@
       <c r="A4880" s="1">
         <v>45257.770833333336</v>
       </c>
-      <c r="B4880" t="s">
+      <c r="B4880">
         <v>2</v>
       </c>
     </row>
@@ -39499,40 +39499,40 @@
       <c r="A4882" s="1">
         <v>45258.395833333336</v>
       </c>
-      <c r="B4882" t="s">
-        <v>2</v>
+      <c r="B4882">
+        <v>4</v>
       </c>
     </row>
     <row r="4883" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4883" s="1">
         <v>45258.447916666664</v>
       </c>
-      <c r="B4883" t="s">
-        <v>2</v>
+      <c r="B4883">
+        <v>4</v>
       </c>
     </row>
     <row r="4884" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4884" s="1">
         <v>45258.572916666664</v>
       </c>
-      <c r="B4884" t="s">
-        <v>2</v>
+      <c r="B4884">
+        <v>10</v>
       </c>
     </row>
     <row r="4885" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4885" s="1">
         <v>45258.677083333336</v>
       </c>
-      <c r="B4885" t="s">
-        <v>2</v>
+      <c r="B4885">
+        <v>14</v>
       </c>
     </row>
     <row r="4886" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4886" s="1">
         <v>45258.739583333336</v>
       </c>
-      <c r="B4886" t="s">
-        <v>2</v>
+      <c r="B4886">
+        <v>12</v>
       </c>
     </row>
     <row r="4887" spans="1:2" x14ac:dyDescent="0.35">
@@ -39547,8 +39547,8 @@
       <c r="A4888" s="1">
         <v>45258.770833333336</v>
       </c>
-      <c r="B4888" t="s">
-        <v>2</v>
+      <c r="B4888">
+        <v>11</v>
       </c>
     </row>
     <row r="4889" spans="1:2" x14ac:dyDescent="0.35">
@@ -39563,40 +39563,40 @@
       <c r="A4890" s="1">
         <v>45259.395833333336</v>
       </c>
-      <c r="B4890" t="s">
-        <v>2</v>
+      <c r="B4890">
+        <v>7</v>
       </c>
     </row>
     <row r="4891" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4891" s="1">
         <v>45259.447916666664</v>
       </c>
-      <c r="B4891" t="s">
-        <v>2</v>
+      <c r="B4891">
+        <v>7</v>
       </c>
     </row>
     <row r="4892" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4892" s="1">
         <v>45259.572916666664</v>
       </c>
-      <c r="B4892" t="s">
-        <v>2</v>
+      <c r="B4892">
+        <v>19</v>
       </c>
     </row>
     <row r="4893" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4893" s="1">
         <v>45259.677083333336</v>
       </c>
-      <c r="B4893" t="s">
-        <v>2</v>
+      <c r="B4893">
+        <v>19</v>
       </c>
     </row>
     <row r="4894" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4894" s="1">
         <v>45259.739583333336</v>
       </c>
-      <c r="B4894" t="s">
-        <v>2</v>
+      <c r="B4894">
+        <v>9</v>
       </c>
     </row>
     <row r="4895" spans="1:2" x14ac:dyDescent="0.35">
@@ -39611,8 +39611,8 @@
       <c r="A4896" s="1">
         <v>45259.770833333336</v>
       </c>
-      <c r="B4896" t="s">
-        <v>2</v>
+      <c r="B4896">
+        <v>5</v>
       </c>
     </row>
     <row r="4897" spans="1:2" x14ac:dyDescent="0.35">

--- a/data/new_data.xlsx
+++ b/data/new_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akira\Documents\GitHub\Visitor-prediction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB0C7E8-9488-4F51-8213-17D996C5AF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7703E63B-497E-4510-A9AE-0B6A40F725FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="7850" windowHeight="11370" xr2:uid="{66FE3B0E-8228-4484-A55C-768F26A6B1F7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{66FE3B0E-8228-4484-A55C-768F26A6B1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="new_data" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4493" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4208" uniqueCount="3">
   <si>
     <t>timestemp</t>
   </si>
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9EECFBA-3846-46D1-8C29-0E3A213EF95A}">
   <dimension ref="A1:B4897"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4672" workbookViewId="0">
-      <selection activeCell="B4678" sqref="B4678"/>
+    <sheetView tabSelected="1" topLeftCell="A3046" workbookViewId="0">
+      <selection activeCell="E3160" sqref="E3160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25715,24 +25715,24 @@
       <c r="A3159" s="1">
         <v>45042.75</v>
       </c>
-      <c r="B3159" t="s">
-        <v>2</v>
+      <c r="B3159">
+        <v>1</v>
       </c>
     </row>
     <row r="3160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3160" s="1">
         <v>45042.770833333336</v>
       </c>
-      <c r="B3160" t="s">
-        <v>2</v>
+      <c r="B3160">
+        <v>1</v>
       </c>
     </row>
     <row r="3161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3161" s="1">
         <v>45042.78125</v>
       </c>
-      <c r="B3161" t="s">
-        <v>2</v>
+      <c r="B3161">
+        <v>1</v>
       </c>
     </row>
     <row r="3162" spans="1:2" x14ac:dyDescent="0.35">
@@ -25779,24 +25779,24 @@
       <c r="A3167" s="1">
         <v>45043.75</v>
       </c>
-      <c r="B3167" t="s">
-        <v>2</v>
+      <c r="B3167">
+        <v>1</v>
       </c>
     </row>
     <row r="3168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3168" s="1">
         <v>45043.770833333336</v>
       </c>
-      <c r="B3168" t="s">
-        <v>2</v>
+      <c r="B3168">
+        <v>1</v>
       </c>
     </row>
     <row r="3169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3169" s="1">
         <v>45043.78125</v>
       </c>
-      <c r="B3169" t="s">
-        <v>2</v>
+      <c r="B3169">
+        <v>0</v>
       </c>
     </row>
     <row r="3170" spans="1:2" x14ac:dyDescent="0.35">
@@ -25867,128 +25867,128 @@
       <c r="A3178" s="1">
         <v>45045.395833333336</v>
       </c>
-      <c r="B3178" t="s">
-        <v>2</v>
+      <c r="B3178">
+        <v>0</v>
       </c>
     </row>
     <row r="3179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3179" s="1">
         <v>45045.447916666664</v>
       </c>
-      <c r="B3179" t="s">
-        <v>2</v>
+      <c r="B3179">
+        <v>0</v>
       </c>
     </row>
     <row r="3180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3180" s="1">
         <v>45045.572916666664</v>
       </c>
-      <c r="B3180" t="s">
-        <v>2</v>
+      <c r="B3180">
+        <v>0</v>
       </c>
     </row>
     <row r="3181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3181" s="1">
         <v>45045.677083333336</v>
       </c>
-      <c r="B3181" t="s">
-        <v>2</v>
+      <c r="B3181">
+        <v>0</v>
       </c>
     </row>
     <row r="3182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3182" s="1">
         <v>45045.739583333336</v>
       </c>
-      <c r="B3182" t="s">
-        <v>2</v>
+      <c r="B3182">
+        <v>0</v>
       </c>
     </row>
     <row r="3183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3183" s="1">
         <v>45045.75</v>
       </c>
-      <c r="B3183" t="s">
-        <v>2</v>
+      <c r="B3183">
+        <v>0</v>
       </c>
     </row>
     <row r="3184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3184" s="1">
         <v>45045.770833333336</v>
       </c>
-      <c r="B3184" t="s">
-        <v>2</v>
+      <c r="B3184">
+        <v>0</v>
       </c>
     </row>
     <row r="3185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3185" s="1">
         <v>45045.78125</v>
       </c>
-      <c r="B3185" t="s">
-        <v>2</v>
+      <c r="B3185">
+        <v>0</v>
       </c>
     </row>
     <row r="3186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3186" s="1">
         <v>45046.395833333336</v>
       </c>
-      <c r="B3186" t="s">
-        <v>2</v>
+      <c r="B3186">
+        <v>0</v>
       </c>
     </row>
     <row r="3187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3187" s="1">
         <v>45046.447916666664</v>
       </c>
-      <c r="B3187" t="s">
-        <v>2</v>
+      <c r="B3187">
+        <v>0</v>
       </c>
     </row>
     <row r="3188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3188" s="1">
         <v>45046.572916666664</v>
       </c>
-      <c r="B3188" t="s">
-        <v>2</v>
+      <c r="B3188">
+        <v>0</v>
       </c>
     </row>
     <row r="3189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3189" s="1">
         <v>45046.677083333336</v>
       </c>
-      <c r="B3189" t="s">
-        <v>2</v>
+      <c r="B3189">
+        <v>0</v>
       </c>
     </row>
     <row r="3190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3190" s="1">
         <v>45046.739583333336</v>
       </c>
-      <c r="B3190" t="s">
-        <v>2</v>
+      <c r="B3190">
+        <v>0</v>
       </c>
     </row>
     <row r="3191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3191" s="1">
         <v>45046.75</v>
       </c>
-      <c r="B3191" t="s">
-        <v>2</v>
+      <c r="B3191">
+        <v>0</v>
       </c>
     </row>
     <row r="3192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3192" s="1">
         <v>45046.770833333336</v>
       </c>
-      <c r="B3192" t="s">
-        <v>2</v>
+      <c r="B3192">
+        <v>0</v>
       </c>
     </row>
     <row r="3193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3193" s="1">
         <v>45046.78125</v>
       </c>
-      <c r="B3193" t="s">
-        <v>2</v>
+      <c r="B3193">
+        <v>0</v>
       </c>
     </row>
     <row r="3194" spans="1:2" x14ac:dyDescent="0.35">
@@ -26099,7 +26099,7 @@
       <c r="A3207" s="1">
         <v>45048.75</v>
       </c>
-      <c r="B3207" t="s">
+      <c r="B3207">
         <v>2</v>
       </c>
     </row>
@@ -26107,16 +26107,16 @@
       <c r="A3208" s="1">
         <v>45048.770833333336</v>
       </c>
-      <c r="B3208" t="s">
-        <v>2</v>
+      <c r="B3208">
+        <v>1</v>
       </c>
     </row>
     <row r="3209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3209" s="1">
         <v>45048.78125</v>
       </c>
-      <c r="B3209" t="s">
-        <v>2</v>
+      <c r="B3209">
+        <v>1</v>
       </c>
     </row>
     <row r="3210" spans="1:2" x14ac:dyDescent="0.35">
@@ -26163,15 +26163,15 @@
       <c r="A3215" s="1">
         <v>45049.75</v>
       </c>
-      <c r="B3215" t="s">
-        <v>2</v>
+      <c r="B3215">
+        <v>1</v>
       </c>
     </row>
     <row r="3216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3216" s="1">
         <v>45049.770833333336</v>
       </c>
-      <c r="B3216" t="s">
+      <c r="B3216">
         <v>2</v>
       </c>
     </row>
@@ -26179,7 +26179,7 @@
       <c r="A3217" s="1">
         <v>45049.78125</v>
       </c>
-      <c r="B3217" t="s">
+      <c r="B3217">
         <v>2</v>
       </c>
     </row>
@@ -26227,24 +26227,24 @@
       <c r="A3223" s="1">
         <v>45050.75</v>
       </c>
-      <c r="B3223" t="s">
-        <v>2</v>
+      <c r="B3223">
+        <v>1</v>
       </c>
     </row>
     <row r="3224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3224" s="1">
         <v>45050.770833333336</v>
       </c>
-      <c r="B3224" t="s">
-        <v>2</v>
+      <c r="B3224">
+        <v>0</v>
       </c>
     </row>
     <row r="3225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3225" s="1">
         <v>45050.78125</v>
       </c>
-      <c r="B3225" t="s">
-        <v>2</v>
+      <c r="B3225">
+        <v>0</v>
       </c>
     </row>
     <row r="3226" spans="1:2" x14ac:dyDescent="0.35">
@@ -26315,128 +26315,128 @@
       <c r="A3234" s="1">
         <v>45052.395833333336</v>
       </c>
-      <c r="B3234" t="s">
-        <v>2</v>
+      <c r="B3234">
+        <v>0</v>
       </c>
     </row>
     <row r="3235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3235" s="1">
         <v>45052.447916666664</v>
       </c>
-      <c r="B3235" t="s">
-        <v>2</v>
+      <c r="B3235">
+        <v>0</v>
       </c>
     </row>
     <row r="3236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3236" s="1">
         <v>45052.572916666664</v>
       </c>
-      <c r="B3236" t="s">
-        <v>2</v>
+      <c r="B3236">
+        <v>0</v>
       </c>
     </row>
     <row r="3237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3237" s="1">
         <v>45052.677083333336</v>
       </c>
-      <c r="B3237" t="s">
-        <v>2</v>
+      <c r="B3237">
+        <v>0</v>
       </c>
     </row>
     <row r="3238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3238" s="1">
         <v>45052.739583333336</v>
       </c>
-      <c r="B3238" t="s">
-        <v>2</v>
+      <c r="B3238">
+        <v>0</v>
       </c>
     </row>
     <row r="3239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3239" s="1">
         <v>45052.75</v>
       </c>
-      <c r="B3239" t="s">
-        <v>2</v>
+      <c r="B3239">
+        <v>0</v>
       </c>
     </row>
     <row r="3240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3240" s="1">
         <v>45052.770833333336</v>
       </c>
-      <c r="B3240" t="s">
-        <v>2</v>
+      <c r="B3240">
+        <v>0</v>
       </c>
     </row>
     <row r="3241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3241" s="1">
         <v>45052.78125</v>
       </c>
-      <c r="B3241" t="s">
-        <v>2</v>
+      <c r="B3241">
+        <v>0</v>
       </c>
     </row>
     <row r="3242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3242" s="1">
         <v>45053.395833333336</v>
       </c>
-      <c r="B3242" t="s">
-        <v>2</v>
+      <c r="B3242">
+        <v>0</v>
       </c>
     </row>
     <row r="3243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3243" s="1">
         <v>45053.447916666664</v>
       </c>
-      <c r="B3243" t="s">
-        <v>2</v>
+      <c r="B3243">
+        <v>0</v>
       </c>
     </row>
     <row r="3244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3244" s="1">
         <v>45053.572916666664</v>
       </c>
-      <c r="B3244" t="s">
-        <v>2</v>
+      <c r="B3244">
+        <v>0</v>
       </c>
     </row>
     <row r="3245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3245" s="1">
         <v>45053.677083333336</v>
       </c>
-      <c r="B3245" t="s">
-        <v>2</v>
+      <c r="B3245">
+        <v>0</v>
       </c>
     </row>
     <row r="3246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3246" s="1">
         <v>45053.739583333336</v>
       </c>
-      <c r="B3246" t="s">
-        <v>2</v>
+      <c r="B3246">
+        <v>0</v>
       </c>
     </row>
     <row r="3247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3247" s="1">
         <v>45053.75</v>
       </c>
-      <c r="B3247" t="s">
-        <v>2</v>
+      <c r="B3247">
+        <v>0</v>
       </c>
     </row>
     <row r="3248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3248" s="1">
         <v>45053.770833333336</v>
       </c>
-      <c r="B3248" t="s">
-        <v>2</v>
+      <c r="B3248">
+        <v>0</v>
       </c>
     </row>
     <row r="3249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3249" s="1">
         <v>45053.78125</v>
       </c>
-      <c r="B3249" t="s">
-        <v>2</v>
+      <c r="B3249">
+        <v>0</v>
       </c>
     </row>
     <row r="3250" spans="1:2" x14ac:dyDescent="0.35">
@@ -26483,24 +26483,24 @@
       <c r="A3255" s="1">
         <v>45054.75</v>
       </c>
-      <c r="B3255" t="s">
-        <v>2</v>
+      <c r="B3255">
+        <v>1</v>
       </c>
     </row>
     <row r="3256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3256" s="1">
         <v>45054.770833333336</v>
       </c>
-      <c r="B3256" t="s">
-        <v>2</v>
+      <c r="B3256">
+        <v>1</v>
       </c>
     </row>
     <row r="3257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3257" s="1">
         <v>45054.78125</v>
       </c>
-      <c r="B3257" t="s">
-        <v>2</v>
+      <c r="B3257">
+        <v>1</v>
       </c>
     </row>
     <row r="3258" spans="1:2" x14ac:dyDescent="0.35">
@@ -26547,63 +26547,63 @@
       <c r="A3263" s="1">
         <v>45055.75</v>
       </c>
-      <c r="B3263" t="s">
-        <v>2</v>
+      <c r="B3263">
+        <v>4</v>
       </c>
     </row>
     <row r="3264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3264" s="1">
         <v>45055.770833333336</v>
       </c>
-      <c r="B3264" t="s">
-        <v>2</v>
+      <c r="B3264">
+        <v>4</v>
       </c>
     </row>
     <row r="3265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3265" s="1">
         <v>45055.78125</v>
       </c>
-      <c r="B3265" t="s">
-        <v>2</v>
+      <c r="B3265">
+        <v>4</v>
       </c>
     </row>
     <row r="3266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3266" s="1">
         <v>45056.395833333336</v>
       </c>
-      <c r="B3266" t="s">
-        <v>2</v>
+      <c r="B3266">
+        <v>1</v>
       </c>
     </row>
     <row r="3267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3267" s="1">
         <v>45056.447916666664</v>
       </c>
-      <c r="B3267" t="s">
-        <v>2</v>
+      <c r="B3267">
+        <v>1</v>
       </c>
     </row>
     <row r="3268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3268" s="1">
         <v>45056.572916666664</v>
       </c>
-      <c r="B3268" t="s">
-        <v>2</v>
+      <c r="B3268">
+        <v>6</v>
       </c>
     </row>
     <row r="3269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3269" s="1">
         <v>45056.677083333336</v>
       </c>
-      <c r="B3269" t="s">
-        <v>2</v>
+      <c r="B3269">
+        <v>4</v>
       </c>
     </row>
     <row r="3270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3270" s="1">
         <v>45056.739583333336</v>
       </c>
-      <c r="B3270" t="s">
+      <c r="B3270">
         <v>2</v>
       </c>
     </row>
@@ -26611,7 +26611,7 @@
       <c r="A3271" s="1">
         <v>45056.75</v>
       </c>
-      <c r="B3271" t="s">
+      <c r="B3271">
         <v>2</v>
       </c>
     </row>
@@ -26619,7 +26619,7 @@
       <c r="A3272" s="1">
         <v>45056.770833333336</v>
       </c>
-      <c r="B3272" t="s">
+      <c r="B3272">
         <v>2</v>
       </c>
     </row>
@@ -26627,7 +26627,7 @@
       <c r="A3273" s="1">
         <v>45056.78125</v>
       </c>
-      <c r="B3273" t="s">
+      <c r="B3273">
         <v>2</v>
       </c>
     </row>
@@ -26635,79 +26635,79 @@
       <c r="A3274" s="1">
         <v>45057.395833333336</v>
       </c>
-      <c r="B3274" t="s">
-        <v>2</v>
+      <c r="B3274">
+        <v>1</v>
       </c>
     </row>
     <row r="3275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3275" s="1">
         <v>45057.447916666664</v>
       </c>
-      <c r="B3275" t="s">
-        <v>2</v>
+      <c r="B3275">
+        <v>10</v>
       </c>
     </row>
     <row r="3276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3276" s="1">
         <v>45057.572916666664</v>
       </c>
-      <c r="B3276" t="s">
-        <v>2</v>
+      <c r="B3276">
+        <v>6</v>
       </c>
     </row>
     <row r="3277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3277" s="1">
         <v>45057.677083333336</v>
       </c>
-      <c r="B3277" t="s">
-        <v>2</v>
+      <c r="B3277">
+        <v>0</v>
       </c>
     </row>
     <row r="3278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3278" s="1">
         <v>45057.739583333336</v>
       </c>
-      <c r="B3278" t="s">
-        <v>2</v>
+      <c r="B3278">
+        <v>0</v>
       </c>
     </row>
     <row r="3279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3279" s="1">
         <v>45057.75</v>
       </c>
-      <c r="B3279" t="s">
-        <v>2</v>
+      <c r="B3279">
+        <v>1</v>
       </c>
     </row>
     <row r="3280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3280" s="1">
         <v>45057.770833333336</v>
       </c>
-      <c r="B3280" t="s">
-        <v>2</v>
+      <c r="B3280">
+        <v>1</v>
       </c>
     </row>
     <row r="3281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3281" s="1">
         <v>45057.78125</v>
       </c>
-      <c r="B3281" t="s">
-        <v>2</v>
+      <c r="B3281">
+        <v>1</v>
       </c>
     </row>
     <row r="3282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3282" s="1">
         <v>45058.395833333336</v>
       </c>
-      <c r="B3282" t="s">
-        <v>2</v>
+      <c r="B3282">
+        <v>1</v>
       </c>
     </row>
     <row r="3283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3283" s="1">
         <v>45058.447916666664</v>
       </c>
-      <c r="B3283" t="s">
+      <c r="B3283">
         <v>2</v>
       </c>
     </row>
@@ -26715,7 +26715,7 @@
       <c r="A3284" s="1">
         <v>45058.572916666664</v>
       </c>
-      <c r="B3284" t="s">
+      <c r="B3284">
         <v>2</v>
       </c>
     </row>
@@ -26723,8 +26723,8 @@
       <c r="A3285" s="1">
         <v>45058.677083333336</v>
       </c>
-      <c r="B3285" t="s">
-        <v>2</v>
+      <c r="B3285">
+        <v>5</v>
       </c>
     </row>
     <row r="3286" spans="1:2" x14ac:dyDescent="0.35">
@@ -26891,15 +26891,15 @@
       <c r="A3306" s="1">
         <v>45061.395833333336</v>
       </c>
-      <c r="B3306" t="s">
-        <v>2</v>
+      <c r="B3306">
+        <v>0</v>
       </c>
     </row>
     <row r="3307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3307" s="1">
         <v>45061.447916666664</v>
       </c>
-      <c r="B3307" t="s">
+      <c r="B3307">
         <v>2</v>
       </c>
     </row>
@@ -26907,15 +26907,15 @@
       <c r="A3308" s="1">
         <v>45061.572916666664</v>
       </c>
-      <c r="B3308" t="s">
-        <v>2</v>
+      <c r="B3308">
+        <v>14</v>
       </c>
     </row>
     <row r="3309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3309" s="1">
         <v>45061.677083333336</v>
       </c>
-      <c r="B3309" t="s">
+      <c r="B3309">
         <v>2</v>
       </c>
     </row>
@@ -26923,71 +26923,71 @@
       <c r="A3310" s="1">
         <v>45061.739583333336</v>
       </c>
-      <c r="B3310" t="s">
-        <v>2</v>
+      <c r="B3310">
+        <v>1</v>
       </c>
     </row>
     <row r="3311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3311" s="1">
         <v>45061.75</v>
       </c>
-      <c r="B3311" t="s">
-        <v>2</v>
+      <c r="B3311">
+        <v>1</v>
       </c>
     </row>
     <row r="3312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3312" s="1">
         <v>45061.770833333336</v>
       </c>
-      <c r="B3312" t="s">
-        <v>2</v>
+      <c r="B3312">
+        <v>1</v>
       </c>
     </row>
     <row r="3313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3313" s="1">
         <v>45061.78125</v>
       </c>
-      <c r="B3313" t="s">
-        <v>2</v>
+      <c r="B3313">
+        <v>1</v>
       </c>
     </row>
     <row r="3314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3314" s="1">
         <v>45062.395833333336</v>
       </c>
-      <c r="B3314" t="s">
-        <v>2</v>
+      <c r="B3314">
+        <v>4</v>
       </c>
     </row>
     <row r="3315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3315" s="1">
         <v>45062.447916666664</v>
       </c>
-      <c r="B3315" t="s">
-        <v>2</v>
+      <c r="B3315">
+        <v>12</v>
       </c>
     </row>
     <row r="3316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3316" s="1">
         <v>45062.572916666664</v>
       </c>
-      <c r="B3316" t="s">
-        <v>2</v>
+      <c r="B3316">
+        <v>14</v>
       </c>
     </row>
     <row r="3317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3317" s="1">
         <v>45062.677083333336</v>
       </c>
-      <c r="B3317" t="s">
-        <v>2</v>
+      <c r="B3317">
+        <v>5</v>
       </c>
     </row>
     <row r="3318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3318" s="1">
         <v>45062.739583333336</v>
       </c>
-      <c r="B3318" t="s">
+      <c r="B3318">
         <v>2</v>
       </c>
     </row>
@@ -26995,31 +26995,31 @@
       <c r="A3319" s="1">
         <v>45062.75</v>
       </c>
-      <c r="B3319" t="s">
-        <v>2</v>
+      <c r="B3319">
+        <v>3</v>
       </c>
     </row>
     <row r="3320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3320" s="1">
         <v>45062.770833333336</v>
       </c>
-      <c r="B3320" t="s">
-        <v>2</v>
+      <c r="B3320">
+        <v>0</v>
       </c>
     </row>
     <row r="3321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3321" s="1">
         <v>45062.78125</v>
       </c>
-      <c r="B3321" t="s">
-        <v>2</v>
+      <c r="B3321">
+        <v>0</v>
       </c>
     </row>
     <row r="3322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3322" s="1">
         <v>45063.395833333336</v>
       </c>
-      <c r="B3322" t="s">
+      <c r="B3322">
         <v>2</v>
       </c>
     </row>
@@ -27027,127 +27027,127 @@
       <c r="A3323" s="1">
         <v>45063.447916666664</v>
       </c>
-      <c r="B3323" t="s">
-        <v>2</v>
+      <c r="B3323">
+        <v>5</v>
       </c>
     </row>
     <row r="3324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3324" s="1">
         <v>45063.572916666664</v>
       </c>
-      <c r="B3324" t="s">
-        <v>2</v>
+      <c r="B3324">
+        <v>6</v>
       </c>
     </row>
     <row r="3325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3325" s="1">
         <v>45063.677083333336</v>
       </c>
-      <c r="B3325" t="s">
-        <v>2</v>
+      <c r="B3325">
+        <v>0</v>
       </c>
     </row>
     <row r="3326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3326" s="1">
         <v>45063.739583333336</v>
       </c>
-      <c r="B3326" t="s">
-        <v>2</v>
+      <c r="B3326">
+        <v>1</v>
       </c>
     </row>
     <row r="3327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3327" s="1">
         <v>45063.75</v>
       </c>
-      <c r="B3327" t="s">
-        <v>2</v>
+      <c r="B3327">
+        <v>1</v>
       </c>
     </row>
     <row r="3328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3328" s="1">
         <v>45063.770833333336</v>
       </c>
-      <c r="B3328" t="s">
-        <v>2</v>
+      <c r="B3328">
+        <v>1</v>
       </c>
     </row>
     <row r="3329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3329" s="1">
         <v>45063.78125</v>
       </c>
-      <c r="B3329" t="s">
-        <v>2</v>
+      <c r="B3329">
+        <v>1</v>
       </c>
     </row>
     <row r="3330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3330" s="1">
         <v>45064.395833333336</v>
       </c>
-      <c r="B3330" t="s">
-        <v>2</v>
+      <c r="B3330">
+        <v>0</v>
       </c>
     </row>
     <row r="3331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3331" s="1">
         <v>45064.447916666664</v>
       </c>
-      <c r="B3331" t="s">
-        <v>2</v>
+      <c r="B3331">
+        <v>0</v>
       </c>
     </row>
     <row r="3332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3332" s="1">
         <v>45064.572916666664</v>
       </c>
-      <c r="B3332" t="s">
-        <v>2</v>
+      <c r="B3332">
+        <v>0</v>
       </c>
     </row>
     <row r="3333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3333" s="1">
         <v>45064.677083333336</v>
       </c>
-      <c r="B3333" t="s">
-        <v>2</v>
+      <c r="B3333">
+        <v>0</v>
       </c>
     </row>
     <row r="3334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3334" s="1">
         <v>45064.739583333336</v>
       </c>
-      <c r="B3334" t="s">
-        <v>2</v>
+      <c r="B3334">
+        <v>0</v>
       </c>
     </row>
     <row r="3335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3335" s="1">
         <v>45064.75</v>
       </c>
-      <c r="B3335" t="s">
-        <v>2</v>
+      <c r="B3335">
+        <v>0</v>
       </c>
     </row>
     <row r="3336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3336" s="1">
         <v>45064.770833333336</v>
       </c>
-      <c r="B3336" t="s">
-        <v>2</v>
+      <c r="B3336">
+        <v>0</v>
       </c>
     </row>
     <row r="3337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3337" s="1">
         <v>45064.78125</v>
       </c>
-      <c r="B3337" t="s">
-        <v>2</v>
+      <c r="B3337">
+        <v>0</v>
       </c>
     </row>
     <row r="3338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3338" s="1">
         <v>45065.395833333336</v>
       </c>
-      <c r="B3338" t="s">
+      <c r="B3338">
         <v>2</v>
       </c>
     </row>
@@ -27155,15 +27155,15 @@
       <c r="A3339" s="1">
         <v>45065.447916666664</v>
       </c>
-      <c r="B3339" t="s">
-        <v>2</v>
+      <c r="B3339">
+        <v>4</v>
       </c>
     </row>
     <row r="3340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3340" s="1">
         <v>45065.572916666664</v>
       </c>
-      <c r="B3340" t="s">
+      <c r="B3340">
         <v>2</v>
       </c>
     </row>
@@ -27171,7 +27171,7 @@
       <c r="A3341" s="1">
         <v>45065.677083333336</v>
       </c>
-      <c r="B3341" t="s">
+      <c r="B3341">
         <v>2</v>
       </c>
     </row>
@@ -27211,175 +27211,175 @@
       <c r="A3346" s="1">
         <v>45066.395833333336</v>
       </c>
-      <c r="B3346" t="s">
-        <v>2</v>
+      <c r="B3346">
+        <v>0</v>
       </c>
     </row>
     <row r="3347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3347" s="1">
         <v>45066.447916666664</v>
       </c>
-      <c r="B3347" t="s">
-        <v>2</v>
+      <c r="B3347">
+        <v>0</v>
       </c>
     </row>
     <row r="3348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3348" s="1">
         <v>45066.572916666664</v>
       </c>
-      <c r="B3348" t="s">
-        <v>2</v>
+      <c r="B3348">
+        <v>0</v>
       </c>
     </row>
     <row r="3349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3349" s="1">
         <v>45066.677083333336</v>
       </c>
-      <c r="B3349" t="s">
-        <v>2</v>
+      <c r="B3349">
+        <v>0</v>
       </c>
     </row>
     <row r="3350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3350" s="1">
         <v>45066.739583333336</v>
       </c>
-      <c r="B3350" t="s">
-        <v>2</v>
+      <c r="B3350">
+        <v>0</v>
       </c>
     </row>
     <row r="3351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3351" s="1">
         <v>45066.75</v>
       </c>
-      <c r="B3351" t="s">
-        <v>2</v>
+      <c r="B3351">
+        <v>0</v>
       </c>
     </row>
     <row r="3352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3352" s="1">
         <v>45066.770833333336</v>
       </c>
-      <c r="B3352" t="s">
-        <v>2</v>
+      <c r="B3352">
+        <v>0</v>
       </c>
     </row>
     <row r="3353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3353" s="1">
         <v>45066.78125</v>
       </c>
-      <c r="B3353" t="s">
-        <v>2</v>
+      <c r="B3353">
+        <v>0</v>
       </c>
     </row>
     <row r="3354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3354" s="1">
         <v>45067.395833333336</v>
       </c>
-      <c r="B3354" t="s">
-        <v>2</v>
+      <c r="B3354">
+        <v>0</v>
       </c>
     </row>
     <row r="3355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3355" s="1">
         <v>45067.447916666664</v>
       </c>
-      <c r="B3355" t="s">
-        <v>2</v>
+      <c r="B3355">
+        <v>0</v>
       </c>
     </row>
     <row r="3356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3356" s="1">
         <v>45067.572916666664</v>
       </c>
-      <c r="B3356" t="s">
-        <v>2</v>
+      <c r="B3356">
+        <v>0</v>
       </c>
     </row>
     <row r="3357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3357" s="1">
         <v>45067.677083333336</v>
       </c>
-      <c r="B3357" t="s">
-        <v>2</v>
+      <c r="B3357">
+        <v>0</v>
       </c>
     </row>
     <row r="3358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3358" s="1">
         <v>45067.739583333336</v>
       </c>
-      <c r="B3358" t="s">
-        <v>2</v>
+      <c r="B3358">
+        <v>0</v>
       </c>
     </row>
     <row r="3359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3359" s="1">
         <v>45067.75</v>
       </c>
-      <c r="B3359" t="s">
-        <v>2</v>
+      <c r="B3359">
+        <v>0</v>
       </c>
     </row>
     <row r="3360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3360" s="1">
         <v>45067.770833333336</v>
       </c>
-      <c r="B3360" t="s">
-        <v>2</v>
+      <c r="B3360">
+        <v>0</v>
       </c>
     </row>
     <row r="3361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3361" s="1">
         <v>45067.78125</v>
       </c>
-      <c r="B3361" t="s">
-        <v>2</v>
+      <c r="B3361">
+        <v>0</v>
       </c>
     </row>
     <row r="3362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3362" s="1">
         <v>45068.395833333336</v>
       </c>
-      <c r="B3362" t="s">
-        <v>2</v>
+      <c r="B3362">
+        <v>0</v>
       </c>
     </row>
     <row r="3363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3363" s="1">
         <v>45068.447916666664</v>
       </c>
-      <c r="B3363" t="s">
-        <v>2</v>
+      <c r="B3363">
+        <v>3</v>
       </c>
     </row>
     <row r="3364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3364" s="1">
         <v>45068.572916666664</v>
       </c>
-      <c r="B3364" t="s">
-        <v>2</v>
+      <c r="B3364">
+        <v>5</v>
       </c>
     </row>
     <row r="3365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3365" s="1">
         <v>45068.677083333336</v>
       </c>
-      <c r="B3365" t="s">
-        <v>2</v>
+      <c r="B3365">
+        <v>1</v>
       </c>
     </row>
     <row r="3366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3366" s="1">
         <v>45068.739583333336</v>
       </c>
-      <c r="B3366" t="s">
-        <v>2</v>
+      <c r="B3366">
+        <v>4</v>
       </c>
     </row>
     <row r="3367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3367" s="1">
         <v>45068.75</v>
       </c>
-      <c r="B3367" t="s">
+      <c r="B3367">
         <v>2</v>
       </c>
     </row>
@@ -27387,7 +27387,7 @@
       <c r="A3368" s="1">
         <v>45068.770833333336</v>
       </c>
-      <c r="B3368" t="s">
+      <c r="B3368">
         <v>2</v>
       </c>
     </row>
@@ -27395,79 +27395,79 @@
       <c r="A3369" s="1">
         <v>45068.78125</v>
       </c>
-      <c r="B3369" t="s">
-        <v>2</v>
+      <c r="B3369">
+        <v>1</v>
       </c>
     </row>
     <row r="3370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3370" s="1">
         <v>45069.395833333336</v>
       </c>
-      <c r="B3370" t="s">
-        <v>2</v>
+      <c r="B3370">
+        <v>1</v>
       </c>
     </row>
     <row r="3371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3371" s="1">
         <v>45069.447916666664</v>
       </c>
-      <c r="B3371" t="s">
-        <v>2</v>
+      <c r="B3371">
+        <v>6</v>
       </c>
     </row>
     <row r="3372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3372" s="1">
         <v>45069.572916666664</v>
       </c>
-      <c r="B3372" t="s">
-        <v>2</v>
+      <c r="B3372">
+        <v>6</v>
       </c>
     </row>
     <row r="3373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3373" s="1">
         <v>45069.677083333336</v>
       </c>
-      <c r="B3373" t="s">
-        <v>2</v>
+      <c r="B3373">
+        <v>5</v>
       </c>
     </row>
     <row r="3374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3374" s="1">
         <v>45069.739583333336</v>
       </c>
-      <c r="B3374" t="s">
-        <v>2</v>
+      <c r="B3374">
+        <v>0</v>
       </c>
     </row>
     <row r="3375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3375" s="1">
         <v>45069.75</v>
       </c>
-      <c r="B3375" t="s">
-        <v>2</v>
+      <c r="B3375">
+        <v>0</v>
       </c>
     </row>
     <row r="3376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3376" s="1">
         <v>45069.770833333336</v>
       </c>
-      <c r="B3376" t="s">
-        <v>2</v>
+      <c r="B3376">
+        <v>1</v>
       </c>
     </row>
     <row r="3377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3377" s="1">
         <v>45069.78125</v>
       </c>
-      <c r="B3377" t="s">
-        <v>2</v>
+      <c r="B3377">
+        <v>1</v>
       </c>
     </row>
     <row r="3378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3378" s="1">
         <v>45070.395833333336</v>
       </c>
-      <c r="B3378" t="s">
+      <c r="B3378">
         <v>2</v>
       </c>
     </row>
@@ -27475,47 +27475,47 @@
       <c r="A3379" s="1">
         <v>45070.447916666664</v>
       </c>
-      <c r="B3379" t="s">
-        <v>2</v>
+      <c r="B3379">
+        <v>5</v>
       </c>
     </row>
     <row r="3380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3380" s="1">
         <v>45070.572916666664</v>
       </c>
-      <c r="B3380" t="s">
-        <v>2</v>
+      <c r="B3380">
+        <v>6</v>
       </c>
     </row>
     <row r="3381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3381" s="1">
         <v>45070.677083333336</v>
       </c>
-      <c r="B3381" t="s">
-        <v>2</v>
+      <c r="B3381">
+        <v>5</v>
       </c>
     </row>
     <row r="3382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3382" s="1">
         <v>45070.739583333336</v>
       </c>
-      <c r="B3382" t="s">
-        <v>2</v>
+      <c r="B3382">
+        <v>3</v>
       </c>
     </row>
     <row r="3383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3383" s="1">
         <v>45070.75</v>
       </c>
-      <c r="B3383" t="s">
-        <v>2</v>
+      <c r="B3383">
+        <v>3</v>
       </c>
     </row>
     <row r="3384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3384" s="1">
         <v>45070.770833333336</v>
       </c>
-      <c r="B3384" t="s">
+      <c r="B3384">
         <v>2</v>
       </c>
     </row>
@@ -27523,7 +27523,7 @@
       <c r="A3385" s="1">
         <v>45070.78125</v>
       </c>
-      <c r="B3385" t="s">
+      <c r="B3385">
         <v>2</v>
       </c>
     </row>
@@ -27531,96 +27531,96 @@
       <c r="A3386" s="1">
         <v>45071.395833333336</v>
       </c>
-      <c r="B3386" t="s">
-        <v>2</v>
+      <c r="B3386">
+        <v>0</v>
       </c>
     </row>
     <row r="3387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3387" s="1">
         <v>45071.447916666664</v>
       </c>
-      <c r="B3387" t="s">
-        <v>2</v>
+      <c r="B3387">
+        <v>12</v>
       </c>
     </row>
     <row r="3388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3388" s="1">
         <v>45071.572916666664</v>
       </c>
-      <c r="B3388" t="s">
-        <v>2</v>
+      <c r="B3388">
+        <v>12</v>
       </c>
     </row>
     <row r="3389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3389" s="1">
         <v>45071.677083333336</v>
       </c>
-      <c r="B3389" t="s">
-        <v>2</v>
+      <c r="B3389">
+        <v>1</v>
       </c>
     </row>
     <row r="3390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3390" s="1">
         <v>45071.739583333336</v>
       </c>
-      <c r="B3390" t="s">
-        <v>2</v>
+      <c r="B3390">
+        <v>1</v>
       </c>
     </row>
     <row r="3391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3391" s="1">
         <v>45071.75</v>
       </c>
-      <c r="B3391" t="s">
-        <v>2</v>
+      <c r="B3391">
+        <v>1</v>
       </c>
     </row>
     <row r="3392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3392" s="1">
         <v>45071.770833333336</v>
       </c>
-      <c r="B3392" t="s">
-        <v>2</v>
+      <c r="B3392">
+        <v>0</v>
       </c>
     </row>
     <row r="3393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3393" s="1">
         <v>45071.78125</v>
       </c>
-      <c r="B3393" t="s">
-        <v>2</v>
+      <c r="B3393">
+        <v>0</v>
       </c>
     </row>
     <row r="3394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3394" s="1">
         <v>45072.395833333336</v>
       </c>
-      <c r="B3394" t="s">
-        <v>2</v>
+      <c r="B3394">
+        <v>0</v>
       </c>
     </row>
     <row r="3395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3395" s="1">
         <v>45072.447916666664</v>
       </c>
-      <c r="B3395" t="s">
-        <v>2</v>
+      <c r="B3395">
+        <v>0</v>
       </c>
     </row>
     <row r="3396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3396" s="1">
         <v>45072.572916666664</v>
       </c>
-      <c r="B3396" t="s">
-        <v>2</v>
+      <c r="B3396">
+        <v>1</v>
       </c>
     </row>
     <row r="3397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3397" s="1">
         <v>45072.677083333336</v>
       </c>
-      <c r="B3397" t="s">
-        <v>2</v>
+      <c r="B3397">
+        <v>0</v>
       </c>
     </row>
     <row r="3398" spans="1:2" x14ac:dyDescent="0.35">
@@ -27659,128 +27659,128 @@
       <c r="A3402" s="1">
         <v>45073.395833333336</v>
       </c>
-      <c r="B3402" t="s">
-        <v>2</v>
+      <c r="B3402">
+        <v>0</v>
       </c>
     </row>
     <row r="3403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3403" s="1">
         <v>45073.447916666664</v>
       </c>
-      <c r="B3403" t="s">
-        <v>2</v>
+      <c r="B3403">
+        <v>0</v>
       </c>
     </row>
     <row r="3404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3404" s="1">
         <v>45073.572916666664</v>
       </c>
-      <c r="B3404" t="s">
-        <v>2</v>
+      <c r="B3404">
+        <v>0</v>
       </c>
     </row>
     <row r="3405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3405" s="1">
         <v>45073.677083333336</v>
       </c>
-      <c r="B3405" t="s">
-        <v>2</v>
+      <c r="B3405">
+        <v>0</v>
       </c>
     </row>
     <row r="3406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3406" s="1">
         <v>45073.739583333336</v>
       </c>
-      <c r="B3406" t="s">
-        <v>2</v>
+      <c r="B3406">
+        <v>0</v>
       </c>
     </row>
     <row r="3407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3407" s="1">
         <v>45073.75</v>
       </c>
-      <c r="B3407" t="s">
-        <v>2</v>
+      <c r="B3407">
+        <v>0</v>
       </c>
     </row>
     <row r="3408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3408" s="1">
         <v>45073.770833333336</v>
       </c>
-      <c r="B3408" t="s">
-        <v>2</v>
+      <c r="B3408">
+        <v>0</v>
       </c>
     </row>
     <row r="3409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3409" s="1">
         <v>45073.78125</v>
       </c>
-      <c r="B3409" t="s">
-        <v>2</v>
+      <c r="B3409">
+        <v>0</v>
       </c>
     </row>
     <row r="3410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3410" s="1">
         <v>45074.395833333336</v>
       </c>
-      <c r="B3410" t="s">
-        <v>2</v>
+      <c r="B3410">
+        <v>0</v>
       </c>
     </row>
     <row r="3411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3411" s="1">
         <v>45074.447916666664</v>
       </c>
-      <c r="B3411" t="s">
-        <v>2</v>
+      <c r="B3411">
+        <v>0</v>
       </c>
     </row>
     <row r="3412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3412" s="1">
         <v>45074.572916666664</v>
       </c>
-      <c r="B3412" t="s">
-        <v>2</v>
+      <c r="B3412">
+        <v>0</v>
       </c>
     </row>
     <row r="3413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3413" s="1">
         <v>45074.677083333336</v>
       </c>
-      <c r="B3413" t="s">
-        <v>2</v>
+      <c r="B3413">
+        <v>0</v>
       </c>
     </row>
     <row r="3414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3414" s="1">
         <v>45074.739583333336</v>
       </c>
-      <c r="B3414" t="s">
-        <v>2</v>
+      <c r="B3414">
+        <v>0</v>
       </c>
     </row>
     <row r="3415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3415" s="1">
         <v>45074.75</v>
       </c>
-      <c r="B3415" t="s">
-        <v>2</v>
+      <c r="B3415">
+        <v>0</v>
       </c>
     </row>
     <row r="3416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3416" s="1">
         <v>45074.770833333336</v>
       </c>
-      <c r="B3416" t="s">
-        <v>2</v>
+      <c r="B3416">
+        <v>0</v>
       </c>
     </row>
     <row r="3417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3417" s="1">
         <v>45074.78125</v>
       </c>
-      <c r="B3417" t="s">
-        <v>2</v>
+      <c r="B3417">
+        <v>0</v>
       </c>
     </row>
     <row r="3418" spans="1:2" x14ac:dyDescent="0.35">
@@ -27851,31 +27851,31 @@
       <c r="A3426" s="1">
         <v>45076.395833333336</v>
       </c>
-      <c r="B3426" t="s">
-        <v>2</v>
+      <c r="B3426">
+        <v>1</v>
       </c>
     </row>
     <row r="3427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3427" s="1">
         <v>45076.447916666664</v>
       </c>
-      <c r="B3427" t="s">
-        <v>2</v>
+      <c r="B3427">
+        <v>4</v>
       </c>
     </row>
     <row r="3428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3428" s="1">
         <v>45076.572916666664</v>
       </c>
-      <c r="B3428" t="s">
-        <v>2</v>
+      <c r="B3428">
+        <v>4</v>
       </c>
     </row>
     <row r="3429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3429" s="1">
         <v>45076.677083333336</v>
       </c>
-      <c r="B3429" t="s">
+      <c r="B3429">
         <v>2</v>
       </c>
     </row>
@@ -27883,128 +27883,128 @@
       <c r="A3430" s="1">
         <v>45076.739583333336</v>
       </c>
-      <c r="B3430" t="s">
-        <v>2</v>
+      <c r="B3430">
+        <v>1</v>
       </c>
     </row>
     <row r="3431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3431" s="1">
         <v>45076.75</v>
       </c>
-      <c r="B3431" t="s">
-        <v>2</v>
+      <c r="B3431">
+        <v>1</v>
       </c>
     </row>
     <row r="3432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3432" s="1">
         <v>45076.770833333336</v>
       </c>
-      <c r="B3432" t="s">
-        <v>2</v>
+      <c r="B3432">
+        <v>1</v>
       </c>
     </row>
     <row r="3433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3433" s="1">
         <v>45076.78125</v>
       </c>
-      <c r="B3433" t="s">
-        <v>2</v>
+      <c r="B3433">
+        <v>0</v>
       </c>
     </row>
     <row r="3434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3434" s="1">
         <v>45077.395833333336</v>
       </c>
-      <c r="B3434" t="s">
-        <v>2</v>
+      <c r="B3434">
+        <v>0</v>
       </c>
     </row>
     <row r="3435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3435" s="1">
         <v>45077.447916666664</v>
       </c>
-      <c r="B3435" t="s">
-        <v>2</v>
+      <c r="B3435">
+        <v>4</v>
       </c>
     </row>
     <row r="3436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3436" s="1">
         <v>45077.572916666664</v>
       </c>
-      <c r="B3436" t="s">
-        <v>2</v>
+      <c r="B3436">
+        <v>3</v>
       </c>
     </row>
     <row r="3437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3437" s="1">
         <v>45077.677083333336</v>
       </c>
-      <c r="B3437" t="s">
-        <v>2</v>
+      <c r="B3437">
+        <v>0</v>
       </c>
     </row>
     <row r="3438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3438" s="1">
         <v>45077.739583333336</v>
       </c>
-      <c r="B3438" t="s">
-        <v>2</v>
+      <c r="B3438">
+        <v>0</v>
       </c>
     </row>
     <row r="3439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3439" s="1">
         <v>45077.75</v>
       </c>
-      <c r="B3439" t="s">
-        <v>2</v>
+      <c r="B3439">
+        <v>0</v>
       </c>
     </row>
     <row r="3440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3440" s="1">
         <v>45077.770833333336</v>
       </c>
-      <c r="B3440" t="s">
-        <v>2</v>
+      <c r="B3440">
+        <v>0</v>
       </c>
     </row>
     <row r="3441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3441" s="1">
         <v>45077.78125</v>
       </c>
-      <c r="B3441" t="s">
-        <v>2</v>
+      <c r="B3441">
+        <v>0</v>
       </c>
     </row>
     <row r="3442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3442" s="1">
         <v>45078.395833333336</v>
       </c>
-      <c r="B3442" t="s">
-        <v>2</v>
+      <c r="B3442">
+        <v>0</v>
       </c>
     </row>
     <row r="3443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3443" s="1">
         <v>45078.447916666664</v>
       </c>
-      <c r="B3443" t="s">
-        <v>2</v>
+      <c r="B3443">
+        <v>0</v>
       </c>
     </row>
     <row r="3444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3444" s="1">
         <v>45078.572916666664</v>
       </c>
-      <c r="B3444" t="s">
-        <v>2</v>
+      <c r="B3444">
+        <v>1</v>
       </c>
     </row>
     <row r="3445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3445" s="1">
         <v>45078.677083333336</v>
       </c>
-      <c r="B3445" t="s">
-        <v>2</v>
+      <c r="B3445">
+        <v>1</v>
       </c>
     </row>
     <row r="3446" spans="1:2" x14ac:dyDescent="0.35">
@@ -28043,32 +28043,32 @@
       <c r="A3450" s="1">
         <v>45079.395833333336</v>
       </c>
-      <c r="B3450" t="s">
-        <v>2</v>
+      <c r="B3450">
+        <v>0</v>
       </c>
     </row>
     <row r="3451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3451" s="1">
         <v>45079.447916666664</v>
       </c>
-      <c r="B3451" t="s">
-        <v>2</v>
+      <c r="B3451">
+        <v>0</v>
       </c>
     </row>
     <row r="3452" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3452" s="1">
         <v>45079.572916666664</v>
       </c>
-      <c r="B3452" t="s">
-        <v>2</v>
+      <c r="B3452">
+        <v>0</v>
       </c>
     </row>
     <row r="3453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3453" s="1">
         <v>45079.677083333336</v>
       </c>
-      <c r="B3453" t="s">
-        <v>2</v>
+      <c r="B3453">
+        <v>0</v>
       </c>
     </row>
     <row r="3454" spans="1:2" x14ac:dyDescent="0.35">
@@ -28107,143 +28107,143 @@
       <c r="A3458" s="1">
         <v>45080.395833333336</v>
       </c>
-      <c r="B3458" t="s">
-        <v>2</v>
+      <c r="B3458">
+        <v>0</v>
       </c>
     </row>
     <row r="3459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3459" s="1">
         <v>45080.447916666664</v>
       </c>
-      <c r="B3459" t="s">
-        <v>2</v>
+      <c r="B3459">
+        <v>0</v>
       </c>
     </row>
     <row r="3460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3460" s="1">
         <v>45080.572916666664</v>
       </c>
-      <c r="B3460" t="s">
-        <v>2</v>
+      <c r="B3460">
+        <v>0</v>
       </c>
     </row>
     <row r="3461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3461" s="1">
         <v>45080.677083333336</v>
       </c>
-      <c r="B3461" t="s">
-        <v>2</v>
+      <c r="B3461">
+        <v>0</v>
       </c>
     </row>
     <row r="3462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3462" s="1">
         <v>45080.739583333336</v>
       </c>
-      <c r="B3462" t="s">
-        <v>2</v>
+      <c r="B3462">
+        <v>0</v>
       </c>
     </row>
     <row r="3463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3463" s="1">
         <v>45080.75</v>
       </c>
-      <c r="B3463" t="s">
-        <v>2</v>
+      <c r="B3463">
+        <v>0</v>
       </c>
     </row>
     <row r="3464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3464" s="1">
         <v>45080.770833333336</v>
       </c>
-      <c r="B3464" t="s">
-        <v>2</v>
+      <c r="B3464">
+        <v>0</v>
       </c>
     </row>
     <row r="3465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3465" s="1">
         <v>45080.78125</v>
       </c>
-      <c r="B3465" t="s">
-        <v>2</v>
+      <c r="B3465">
+        <v>0</v>
       </c>
     </row>
     <row r="3466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3466" s="1">
         <v>45081.395833333336</v>
       </c>
-      <c r="B3466" t="s">
-        <v>2</v>
+      <c r="B3466">
+        <v>0</v>
       </c>
     </row>
     <row r="3467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3467" s="1">
         <v>45081.447916666664</v>
       </c>
-      <c r="B3467" t="s">
-        <v>2</v>
+      <c r="B3467">
+        <v>0</v>
       </c>
     </row>
     <row r="3468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3468" s="1">
         <v>45081.572916666664</v>
       </c>
-      <c r="B3468" t="s">
-        <v>2</v>
+      <c r="B3468">
+        <v>0</v>
       </c>
     </row>
     <row r="3469" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3469" s="1">
         <v>45081.677083333336</v>
       </c>
-      <c r="B3469" t="s">
-        <v>2</v>
+      <c r="B3469">
+        <v>0</v>
       </c>
     </row>
     <row r="3470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3470" s="1">
         <v>45081.739583333336</v>
       </c>
-      <c r="B3470" t="s">
-        <v>2</v>
+      <c r="B3470">
+        <v>0</v>
       </c>
     </row>
     <row r="3471" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3471" s="1">
         <v>45081.75</v>
       </c>
-      <c r="B3471" t="s">
-        <v>2</v>
+      <c r="B3471">
+        <v>0</v>
       </c>
     </row>
     <row r="3472" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3472" s="1">
         <v>45081.770833333336</v>
       </c>
-      <c r="B3472" t="s">
-        <v>2</v>
+      <c r="B3472">
+        <v>0</v>
       </c>
     </row>
     <row r="3473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3473" s="1">
         <v>45081.78125</v>
       </c>
-      <c r="B3473" t="s">
-        <v>2</v>
+      <c r="B3473">
+        <v>0</v>
       </c>
     </row>
     <row r="3474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3474" s="1">
         <v>45082.395833333336</v>
       </c>
-      <c r="B3474" t="s">
-        <v>2</v>
+      <c r="B3474">
+        <v>0</v>
       </c>
     </row>
     <row r="3475" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3475" s="1">
         <v>45082.447916666664</v>
       </c>
-      <c r="B3475" t="s">
+      <c r="B3475">
         <v>2</v>
       </c>
     </row>
@@ -28251,79 +28251,79 @@
       <c r="A3476" s="1">
         <v>45082.572916666664</v>
       </c>
-      <c r="B3476" t="s">
-        <v>2</v>
+      <c r="B3476">
+        <v>7</v>
       </c>
     </row>
     <row r="3477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3477" s="1">
         <v>45082.677083333336</v>
       </c>
-      <c r="B3477" t="s">
-        <v>2</v>
+      <c r="B3477">
+        <v>5</v>
       </c>
     </row>
     <row r="3478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3478" s="1">
         <v>45082.739583333336</v>
       </c>
-      <c r="B3478" t="s">
-        <v>2</v>
+      <c r="B3478">
+        <v>3</v>
       </c>
     </row>
     <row r="3479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3479" s="1">
         <v>45082.75</v>
       </c>
-      <c r="B3479" t="s">
-        <v>2</v>
+      <c r="B3479">
+        <v>3</v>
       </c>
     </row>
     <row r="3480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3480" s="1">
         <v>45082.770833333336</v>
       </c>
-      <c r="B3480" t="s">
-        <v>2</v>
+      <c r="B3480">
+        <v>3</v>
       </c>
     </row>
     <row r="3481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3481" s="1">
         <v>45082.78125</v>
       </c>
-      <c r="B3481" t="s">
-        <v>2</v>
+      <c r="B3481">
+        <v>0</v>
       </c>
     </row>
     <row r="3482" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3482" s="1">
         <v>45083.395833333336</v>
       </c>
-      <c r="B3482" t="s">
-        <v>2</v>
+      <c r="B3482">
+        <v>0</v>
       </c>
     </row>
     <row r="3483" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3483" s="1">
         <v>45083.447916666664</v>
       </c>
-      <c r="B3483" t="s">
-        <v>2</v>
+      <c r="B3483">
+        <v>4</v>
       </c>
     </row>
     <row r="3484" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3484" s="1">
         <v>45083.572916666664</v>
       </c>
-      <c r="B3484" t="s">
-        <v>2</v>
+      <c r="B3484">
+        <v>9</v>
       </c>
     </row>
     <row r="3485" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3485" s="1">
         <v>45083.677083333336</v>
       </c>
-      <c r="B3485" t="s">
+      <c r="B3485">
         <v>2</v>
       </c>
     </row>
@@ -28331,7 +28331,7 @@
       <c r="A3486" s="1">
         <v>45083.739583333336</v>
       </c>
-      <c r="B3486" t="s">
+      <c r="B3486">
         <v>2</v>
       </c>
     </row>
@@ -28339,31 +28339,31 @@
       <c r="A3487" s="1">
         <v>45083.75</v>
       </c>
-      <c r="B3487" t="s">
-        <v>2</v>
+      <c r="B3487">
+        <v>0</v>
       </c>
     </row>
     <row r="3488" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3488" s="1">
         <v>45083.770833333336</v>
       </c>
-      <c r="B3488" t="s">
-        <v>2</v>
+      <c r="B3488">
+        <v>0</v>
       </c>
     </row>
     <row r="3489" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3489" s="1">
         <v>45083.78125</v>
       </c>
-      <c r="B3489" t="s">
-        <v>2</v>
+      <c r="B3489">
+        <v>0</v>
       </c>
     </row>
     <row r="3490" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3490" s="1">
         <v>45084.395833333336</v>
       </c>
-      <c r="B3490" t="s">
+      <c r="B3490">
         <v>2</v>
       </c>
     </row>
@@ -28371,152 +28371,152 @@
       <c r="A3491" s="1">
         <v>45084.447916666664</v>
       </c>
-      <c r="B3491" t="s">
-        <v>2</v>
+      <c r="B3491">
+        <v>8</v>
       </c>
     </row>
     <row r="3492" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3492" s="1">
         <v>45084.572916666664</v>
       </c>
-      <c r="B3492" t="s">
-        <v>2</v>
+      <c r="B3492">
+        <v>9</v>
       </c>
     </row>
     <row r="3493" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3493" s="1">
         <v>45084.677083333336</v>
       </c>
-      <c r="B3493" t="s">
-        <v>2</v>
+      <c r="B3493">
+        <v>4</v>
       </c>
     </row>
     <row r="3494" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3494" s="1">
         <v>45084.739583333336</v>
       </c>
-      <c r="B3494" t="s">
-        <v>2</v>
+      <c r="B3494">
+        <v>0</v>
       </c>
     </row>
     <row r="3495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3495" s="1">
         <v>45084.75</v>
       </c>
-      <c r="B3495" t="s">
-        <v>2</v>
+      <c r="B3495">
+        <v>0</v>
       </c>
     </row>
     <row r="3496" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3496" s="1">
         <v>45084.770833333336</v>
       </c>
-      <c r="B3496" t="s">
-        <v>2</v>
+      <c r="B3496">
+        <v>0</v>
       </c>
     </row>
     <row r="3497" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3497" s="1">
         <v>45084.78125</v>
       </c>
-      <c r="B3497" t="s">
-        <v>2</v>
+      <c r="B3497">
+        <v>0</v>
       </c>
     </row>
     <row r="3498" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3498" s="1">
         <v>45085.395833333336</v>
       </c>
-      <c r="B3498" t="s">
-        <v>2</v>
+      <c r="B3498">
+        <v>0</v>
       </c>
     </row>
     <row r="3499" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3499" s="1">
         <v>45085.447916666664</v>
       </c>
-      <c r="B3499" t="s">
-        <v>2</v>
+      <c r="B3499">
+        <v>0</v>
       </c>
     </row>
     <row r="3500" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3500" s="1">
         <v>45085.572916666664</v>
       </c>
-      <c r="B3500" t="s">
-        <v>2</v>
+      <c r="B3500">
+        <v>0</v>
       </c>
     </row>
     <row r="3501" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3501" s="1">
         <v>45085.677083333336</v>
       </c>
-      <c r="B3501" t="s">
-        <v>2</v>
+      <c r="B3501">
+        <v>0</v>
       </c>
     </row>
     <row r="3502" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3502" s="1">
         <v>45085.739583333336</v>
       </c>
-      <c r="B3502" t="s">
-        <v>2</v>
+      <c r="B3502">
+        <v>0</v>
       </c>
     </row>
     <row r="3503" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3503" s="1">
         <v>45085.75</v>
       </c>
-      <c r="B3503" t="s">
-        <v>2</v>
+      <c r="B3503">
+        <v>0</v>
       </c>
     </row>
     <row r="3504" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3504" s="1">
         <v>45085.770833333336</v>
       </c>
-      <c r="B3504" t="s">
-        <v>2</v>
+      <c r="B3504">
+        <v>0</v>
       </c>
     </row>
     <row r="3505" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3505" s="1">
         <v>45085.78125</v>
       </c>
-      <c r="B3505" t="s">
-        <v>2</v>
+      <c r="B3505">
+        <v>0</v>
       </c>
     </row>
     <row r="3506" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3506" s="1">
         <v>45086.395833333336</v>
       </c>
-      <c r="B3506" t="s">
-        <v>2</v>
+      <c r="B3506">
+        <v>3</v>
       </c>
     </row>
     <row r="3507" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3507" s="1">
         <v>45086.447916666664</v>
       </c>
-      <c r="B3507" t="s">
-        <v>2</v>
+      <c r="B3507">
+        <v>5</v>
       </c>
     </row>
     <row r="3508" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3508" s="1">
         <v>45086.572916666664</v>
       </c>
-      <c r="B3508" t="s">
-        <v>2</v>
+      <c r="B3508">
+        <v>6</v>
       </c>
     </row>
     <row r="3509" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3509" s="1">
         <v>45086.677083333336</v>
       </c>
-      <c r="B3509" t="s">
-        <v>2</v>
+      <c r="B3509">
+        <v>4</v>
       </c>
     </row>
     <row r="3510" spans="1:2" x14ac:dyDescent="0.35">
@@ -28555,239 +28555,239 @@
       <c r="A3514" s="1">
         <v>45087.395833333336</v>
       </c>
-      <c r="B3514" t="s">
-        <v>2</v>
+      <c r="B3514">
+        <v>0</v>
       </c>
     </row>
     <row r="3515" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3515" s="1">
         <v>45087.447916666664</v>
       </c>
-      <c r="B3515" t="s">
-        <v>2</v>
+      <c r="B3515">
+        <v>0</v>
       </c>
     </row>
     <row r="3516" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3516" s="1">
         <v>45087.572916666664</v>
       </c>
-      <c r="B3516" t="s">
-        <v>2</v>
+      <c r="B3516">
+        <v>0</v>
       </c>
     </row>
     <row r="3517" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3517" s="1">
         <v>45087.677083333336</v>
       </c>
-      <c r="B3517" t="s">
-        <v>2</v>
+      <c r="B3517">
+        <v>0</v>
       </c>
     </row>
     <row r="3518" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3518" s="1">
         <v>45087.739583333336</v>
       </c>
-      <c r="B3518" t="s">
-        <v>2</v>
+      <c r="B3518">
+        <v>0</v>
       </c>
     </row>
     <row r="3519" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3519" s="1">
         <v>45087.75</v>
       </c>
-      <c r="B3519" t="s">
-        <v>2</v>
+      <c r="B3519">
+        <v>0</v>
       </c>
     </row>
     <row r="3520" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3520" s="1">
         <v>45087.770833333336</v>
       </c>
-      <c r="B3520" t="s">
-        <v>2</v>
+      <c r="B3520">
+        <v>0</v>
       </c>
     </row>
     <row r="3521" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3521" s="1">
         <v>45087.78125</v>
       </c>
-      <c r="B3521" t="s">
-        <v>2</v>
+      <c r="B3521">
+        <v>0</v>
       </c>
     </row>
     <row r="3522" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3522" s="1">
         <v>45088.395833333336</v>
       </c>
-      <c r="B3522" t="s">
-        <v>2</v>
+      <c r="B3522">
+        <v>0</v>
       </c>
     </row>
     <row r="3523" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3523" s="1">
         <v>45088.447916666664</v>
       </c>
-      <c r="B3523" t="s">
-        <v>2</v>
+      <c r="B3523">
+        <v>0</v>
       </c>
     </row>
     <row r="3524" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3524" s="1">
         <v>45088.572916666664</v>
       </c>
-      <c r="B3524" t="s">
-        <v>2</v>
+      <c r="B3524">
+        <v>0</v>
       </c>
     </row>
     <row r="3525" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3525" s="1">
         <v>45088.677083333336</v>
       </c>
-      <c r="B3525" t="s">
-        <v>2</v>
+      <c r="B3525">
+        <v>0</v>
       </c>
     </row>
     <row r="3526" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3526" s="1">
         <v>45088.739583333336</v>
       </c>
-      <c r="B3526" t="s">
-        <v>2</v>
+      <c r="B3526">
+        <v>0</v>
       </c>
     </row>
     <row r="3527" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3527" s="1">
         <v>45088.75</v>
       </c>
-      <c r="B3527" t="s">
-        <v>2</v>
+      <c r="B3527">
+        <v>0</v>
       </c>
     </row>
     <row r="3528" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3528" s="1">
         <v>45088.770833333336</v>
       </c>
-      <c r="B3528" t="s">
-        <v>2</v>
+      <c r="B3528">
+        <v>0</v>
       </c>
     </row>
     <row r="3529" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3529" s="1">
         <v>45088.78125</v>
       </c>
-      <c r="B3529" t="s">
-        <v>2</v>
+      <c r="B3529">
+        <v>0</v>
       </c>
     </row>
     <row r="3530" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3530" s="1">
         <v>45089.395833333336</v>
       </c>
-      <c r="B3530" t="s">
-        <v>2</v>
+      <c r="B3530">
+        <v>0</v>
       </c>
     </row>
     <row r="3531" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3531" s="1">
         <v>45089.447916666664</v>
       </c>
-      <c r="B3531" t="s">
-        <v>2</v>
+      <c r="B3531">
+        <v>1</v>
       </c>
     </row>
     <row r="3532" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3532" s="1">
         <v>45089.572916666664</v>
       </c>
-      <c r="B3532" t="s">
-        <v>2</v>
+      <c r="B3532">
+        <v>5</v>
       </c>
     </row>
     <row r="3533" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3533" s="1">
         <v>45089.677083333336</v>
       </c>
-      <c r="B3533" t="s">
-        <v>2</v>
+      <c r="B3533">
+        <v>6</v>
       </c>
     </row>
     <row r="3534" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3534" s="1">
         <v>45089.739583333336</v>
       </c>
-      <c r="B3534" t="s">
-        <v>2</v>
+      <c r="B3534">
+        <v>4</v>
       </c>
     </row>
     <row r="3535" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3535" s="1">
         <v>45089.75</v>
       </c>
-      <c r="B3535" t="s">
-        <v>2</v>
+      <c r="B3535">
+        <v>3</v>
       </c>
     </row>
     <row r="3536" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3536" s="1">
         <v>45089.770833333336</v>
       </c>
-      <c r="B3536" t="s">
-        <v>2</v>
+      <c r="B3536">
+        <v>1</v>
       </c>
     </row>
     <row r="3537" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3537" s="1">
         <v>45089.78125</v>
       </c>
-      <c r="B3537" t="s">
-        <v>2</v>
+      <c r="B3537">
+        <v>0</v>
       </c>
     </row>
     <row r="3538" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3538" s="1">
         <v>45090.395833333336</v>
       </c>
-      <c r="B3538" t="s">
-        <v>2</v>
+      <c r="B3538">
+        <v>4</v>
       </c>
     </row>
     <row r="3539" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3539" s="1">
         <v>45090.447916666664</v>
       </c>
-      <c r="B3539" t="s">
-        <v>2</v>
+      <c r="B3539">
+        <v>9</v>
       </c>
     </row>
     <row r="3540" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3540" s="1">
         <v>45090.572916666664</v>
       </c>
-      <c r="B3540" t="s">
-        <v>2</v>
+      <c r="B3540">
+        <v>9</v>
       </c>
     </row>
     <row r="3541" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3541" s="1">
         <v>45090.677083333336</v>
       </c>
-      <c r="B3541" t="s">
-        <v>2</v>
+      <c r="B3541">
+        <v>5</v>
       </c>
     </row>
     <row r="3542" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3542" s="1">
         <v>45090.739583333336</v>
       </c>
-      <c r="B3542" t="s">
-        <v>2</v>
+      <c r="B3542">
+        <v>4</v>
       </c>
     </row>
     <row r="3543" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3543" s="1">
         <v>45090.75</v>
       </c>
-      <c r="B3543" t="s">
+      <c r="B3543">
         <v>2</v>
       </c>
     </row>
@@ -28795,39 +28795,39 @@
       <c r="A3544" s="1">
         <v>45090.770833333336</v>
       </c>
-      <c r="B3544" t="s">
-        <v>2</v>
+      <c r="B3544">
+        <v>0</v>
       </c>
     </row>
     <row r="3545" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3545" s="1">
         <v>45090.78125</v>
       </c>
-      <c r="B3545" t="s">
-        <v>2</v>
+      <c r="B3545">
+        <v>0</v>
       </c>
     </row>
     <row r="3546" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3546" s="1">
         <v>45091.395833333336</v>
       </c>
-      <c r="B3546" t="s">
-        <v>2</v>
+      <c r="B3546">
+        <v>1</v>
       </c>
     </row>
     <row r="3547" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3547" s="1">
         <v>45091.447916666664</v>
       </c>
-      <c r="B3547" t="s">
-        <v>2</v>
+      <c r="B3547">
+        <v>3</v>
       </c>
     </row>
     <row r="3548" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3548" s="1">
         <v>45091.572916666664</v>
       </c>
-      <c r="B3548" t="s">
+      <c r="B3548">
         <v>2</v>
       </c>
     </row>
@@ -28835,119 +28835,119 @@
       <c r="A3549" s="1">
         <v>45091.677083333336</v>
       </c>
-      <c r="B3549" t="s">
-        <v>2</v>
+      <c r="B3549">
+        <v>7</v>
       </c>
     </row>
     <row r="3550" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3550" s="1">
         <v>45091.739583333336</v>
       </c>
-      <c r="B3550" t="s">
-        <v>2</v>
+      <c r="B3550">
+        <v>11</v>
       </c>
     </row>
     <row r="3551" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3551" s="1">
         <v>45091.75</v>
       </c>
-      <c r="B3551" t="s">
-        <v>2</v>
+      <c r="B3551">
+        <v>0</v>
       </c>
     </row>
     <row r="3552" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3552" s="1">
         <v>45091.770833333336</v>
       </c>
-      <c r="B3552" t="s">
-        <v>2</v>
+      <c r="B3552">
+        <v>0</v>
       </c>
     </row>
     <row r="3553" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3553" s="1">
         <v>45091.78125</v>
       </c>
-      <c r="B3553" t="s">
-        <v>2</v>
+      <c r="B3553">
+        <v>0</v>
       </c>
     </row>
     <row r="3554" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3554" s="1">
         <v>45092.395833333336</v>
       </c>
-      <c r="B3554" t="s">
-        <v>2</v>
+      <c r="B3554">
+        <v>1</v>
       </c>
     </row>
     <row r="3555" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3555" s="1">
         <v>45092.447916666664</v>
       </c>
-      <c r="B3555" t="s">
-        <v>2</v>
+      <c r="B3555">
+        <v>10</v>
       </c>
     </row>
     <row r="3556" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3556" s="1">
         <v>45092.572916666664</v>
       </c>
-      <c r="B3556" t="s">
-        <v>2</v>
+      <c r="B3556">
+        <v>10</v>
       </c>
     </row>
     <row r="3557" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3557" s="1">
         <v>45092.677083333336</v>
       </c>
-      <c r="B3557" t="s">
-        <v>2</v>
+      <c r="B3557">
+        <v>0</v>
       </c>
     </row>
     <row r="3558" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3558" s="1">
         <v>45092.739583333336</v>
       </c>
-      <c r="B3558" t="s">
-        <v>2</v>
+      <c r="B3558">
+        <v>0</v>
       </c>
     </row>
     <row r="3559" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3559" s="1">
         <v>45092.75</v>
       </c>
-      <c r="B3559" t="s">
-        <v>2</v>
+      <c r="B3559">
+        <v>0</v>
       </c>
     </row>
     <row r="3560" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3560" s="1">
         <v>45092.770833333336</v>
       </c>
-      <c r="B3560" t="s">
-        <v>2</v>
+      <c r="B3560">
+        <v>0</v>
       </c>
     </row>
     <row r="3561" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3561" s="1">
         <v>45092.78125</v>
       </c>
-      <c r="B3561" t="s">
-        <v>2</v>
+      <c r="B3561">
+        <v>0</v>
       </c>
     </row>
     <row r="3562" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3562" s="1">
         <v>45093.395833333336</v>
       </c>
-      <c r="B3562" t="s">
-        <v>2</v>
+      <c r="B3562">
+        <v>0</v>
       </c>
     </row>
     <row r="3563" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3563" s="1">
         <v>45093.447916666664</v>
       </c>
-      <c r="B3563" t="s">
+      <c r="B3563">
         <v>2</v>
       </c>
     </row>
@@ -28955,16 +28955,16 @@
       <c r="A3564" s="1">
         <v>45093.572916666664</v>
       </c>
-      <c r="B3564" t="s">
-        <v>2</v>
+      <c r="B3564">
+        <v>3</v>
       </c>
     </row>
     <row r="3565" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3565" s="1">
         <v>45093.677083333336</v>
       </c>
-      <c r="B3565" t="s">
-        <v>2</v>
+      <c r="B3565">
+        <v>0</v>
       </c>
     </row>
     <row r="3566" spans="1:2" x14ac:dyDescent="0.35">
@@ -29131,39 +29131,39 @@
       <c r="A3586" s="1">
         <v>45096.395833333336</v>
       </c>
-      <c r="B3586" t="s">
-        <v>2</v>
+      <c r="B3586">
+        <v>1</v>
       </c>
     </row>
     <row r="3587" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3587" s="1">
         <v>45096.447916666664</v>
       </c>
-      <c r="B3587" t="s">
-        <v>2</v>
+      <c r="B3587">
+        <v>6</v>
       </c>
     </row>
     <row r="3588" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3588" s="1">
         <v>45096.572916666664</v>
       </c>
-      <c r="B3588" t="s">
-        <v>2</v>
+      <c r="B3588">
+        <v>7</v>
       </c>
     </row>
     <row r="3589" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3589" s="1">
         <v>45096.677083333336</v>
       </c>
-      <c r="B3589" t="s">
-        <v>2</v>
+      <c r="B3589">
+        <v>7</v>
       </c>
     </row>
     <row r="3590" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3590" s="1">
         <v>45096.739583333336</v>
       </c>
-      <c r="B3590" t="s">
+      <c r="B3590">
         <v>2</v>
       </c>
     </row>
@@ -29171,7 +29171,7 @@
       <c r="A3591" s="1">
         <v>45096.75</v>
       </c>
-      <c r="B3591" t="s">
+      <c r="B3591">
         <v>2</v>
       </c>
     </row>
@@ -29179,7 +29179,7 @@
       <c r="A3592" s="1">
         <v>45096.770833333336</v>
       </c>
-      <c r="B3592" t="s">
+      <c r="B3592">
         <v>2</v>
       </c>
     </row>
@@ -29187,223 +29187,223 @@
       <c r="A3593" s="1">
         <v>45096.78125</v>
       </c>
-      <c r="B3593" t="s">
-        <v>2</v>
+      <c r="B3593">
+        <v>0</v>
       </c>
     </row>
     <row r="3594" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3594" s="1">
         <v>45097.395833333336</v>
       </c>
-      <c r="B3594" t="s">
-        <v>2</v>
+      <c r="B3594">
+        <v>3</v>
       </c>
     </row>
     <row r="3595" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3595" s="1">
         <v>45097.447916666664</v>
       </c>
-      <c r="B3595" t="s">
-        <v>2</v>
+      <c r="B3595">
+        <v>8</v>
       </c>
     </row>
     <row r="3596" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3596" s="1">
         <v>45097.572916666664</v>
       </c>
-      <c r="B3596" t="s">
-        <v>2</v>
+      <c r="B3596">
+        <v>7</v>
       </c>
     </row>
     <row r="3597" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3597" s="1">
         <v>45097.677083333336</v>
       </c>
-      <c r="B3597" t="s">
-        <v>2</v>
+      <c r="B3597">
+        <v>3</v>
       </c>
     </row>
     <row r="3598" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3598" s="1">
         <v>45097.739583333336</v>
       </c>
-      <c r="B3598" t="s">
-        <v>2</v>
+      <c r="B3598">
+        <v>1</v>
       </c>
     </row>
     <row r="3599" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3599" s="1">
         <v>45097.75</v>
       </c>
-      <c r="B3599" t="s">
-        <v>2</v>
+      <c r="B3599">
+        <v>1</v>
       </c>
     </row>
     <row r="3600" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3600" s="1">
         <v>45097.770833333336</v>
       </c>
-      <c r="B3600" t="s">
-        <v>2</v>
+      <c r="B3600">
+        <v>1</v>
       </c>
     </row>
     <row r="3601" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3601" s="1">
         <v>45097.78125</v>
       </c>
-      <c r="B3601" t="s">
-        <v>2</v>
+      <c r="B3601">
+        <v>1</v>
       </c>
     </row>
     <row r="3602" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3602" s="1">
         <v>45098.395833333336</v>
       </c>
-      <c r="B3602" t="s">
-        <v>2</v>
+      <c r="B3602">
+        <v>3</v>
       </c>
     </row>
     <row r="3603" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3603" s="1">
         <v>45098.447916666664</v>
       </c>
-      <c r="B3603" t="s">
-        <v>2</v>
+      <c r="B3603">
+        <v>4</v>
       </c>
     </row>
     <row r="3604" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3604" s="1">
         <v>45098.572916666664</v>
       </c>
-      <c r="B3604" t="s">
-        <v>2</v>
+      <c r="B3604">
+        <v>4</v>
       </c>
     </row>
     <row r="3605" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3605" s="1">
         <v>45098.677083333336</v>
       </c>
-      <c r="B3605" t="s">
-        <v>2</v>
+      <c r="B3605">
+        <v>0</v>
       </c>
     </row>
     <row r="3606" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3606" s="1">
         <v>45098.739583333336</v>
       </c>
-      <c r="B3606" t="s">
-        <v>2</v>
+      <c r="B3606">
+        <v>0</v>
       </c>
     </row>
     <row r="3607" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3607" s="1">
         <v>45098.75</v>
       </c>
-      <c r="B3607" t="s">
-        <v>2</v>
+      <c r="B3607">
+        <v>0</v>
       </c>
     </row>
     <row r="3608" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3608" s="1">
         <v>45098.770833333336</v>
       </c>
-      <c r="B3608" t="s">
-        <v>2</v>
+      <c r="B3608">
+        <v>0</v>
       </c>
     </row>
     <row r="3609" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3609" s="1">
         <v>45098.78125</v>
       </c>
-      <c r="B3609" t="s">
-        <v>2</v>
+      <c r="B3609">
+        <v>0</v>
       </c>
     </row>
     <row r="3610" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3610" s="1">
         <v>45099.395833333336</v>
       </c>
-      <c r="B3610" t="s">
-        <v>2</v>
+      <c r="B3610">
+        <v>1</v>
       </c>
     </row>
     <row r="3611" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3611" s="1">
         <v>45099.447916666664</v>
       </c>
-      <c r="B3611" t="s">
-        <v>2</v>
+      <c r="B3611">
+        <v>4</v>
       </c>
     </row>
     <row r="3612" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3612" s="1">
         <v>45099.572916666664</v>
       </c>
-      <c r="B3612" t="s">
-        <v>2</v>
+      <c r="B3612">
+        <v>5</v>
       </c>
     </row>
     <row r="3613" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3613" s="1">
         <v>45099.677083333336</v>
       </c>
-      <c r="B3613" t="s">
-        <v>2</v>
+      <c r="B3613">
+        <v>5</v>
       </c>
     </row>
     <row r="3614" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3614" s="1">
         <v>45099.739583333336</v>
       </c>
-      <c r="B3614" t="s">
-        <v>2</v>
+      <c r="B3614">
+        <v>3</v>
       </c>
     </row>
     <row r="3615" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3615" s="1">
         <v>45099.75</v>
       </c>
-      <c r="B3615" t="s">
-        <v>2</v>
+      <c r="B3615">
+        <v>0</v>
       </c>
     </row>
     <row r="3616" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3616" s="1">
         <v>45099.770833333336</v>
       </c>
-      <c r="B3616" t="s">
-        <v>2</v>
+      <c r="B3616">
+        <v>0</v>
       </c>
     </row>
     <row r="3617" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3617" s="1">
         <v>45099.78125</v>
       </c>
-      <c r="B3617" t="s">
-        <v>2</v>
+      <c r="B3617">
+        <v>0</v>
       </c>
     </row>
     <row r="3618" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3618" s="1">
         <v>45100.395833333336</v>
       </c>
-      <c r="B3618" t="s">
-        <v>2</v>
+      <c r="B3618">
+        <v>0</v>
       </c>
     </row>
     <row r="3619" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3619" s="1">
         <v>45100.447916666664</v>
       </c>
-      <c r="B3619" t="s">
-        <v>2</v>
+      <c r="B3619">
+        <v>1</v>
       </c>
     </row>
     <row r="3620" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3620" s="1">
         <v>45100.572916666664</v>
       </c>
-      <c r="B3620" t="s">
+      <c r="B3620">
         <v>2</v>
       </c>
     </row>
@@ -29411,8 +29411,8 @@
       <c r="A3621" s="1">
         <v>45100.677083333336</v>
       </c>
-      <c r="B3621" t="s">
-        <v>2</v>
+      <c r="B3621">
+        <v>0</v>
       </c>
     </row>
     <row r="3622" spans="1:2" x14ac:dyDescent="0.35">
@@ -29579,23 +29579,23 @@
       <c r="A3642" s="1">
         <v>45103.395833333336</v>
       </c>
-      <c r="B3642" t="s">
-        <v>2</v>
+      <c r="B3642">
+        <v>0</v>
       </c>
     </row>
     <row r="3643" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3643" s="1">
         <v>45103.447916666664</v>
       </c>
-      <c r="B3643" t="s">
-        <v>2</v>
+      <c r="B3643">
+        <v>4</v>
       </c>
     </row>
     <row r="3644" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3644" s="1">
         <v>45103.572916666664</v>
       </c>
-      <c r="B3644" t="s">
+      <c r="B3644">
         <v>2</v>
       </c>
     </row>
@@ -29603,32 +29603,32 @@
       <c r="A3645" s="1">
         <v>45103.677083333336</v>
       </c>
-      <c r="B3645" t="s">
-        <v>2</v>
+      <c r="B3645">
+        <v>0</v>
       </c>
     </row>
     <row r="3646" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3646" s="1">
         <v>45103.739583333336</v>
       </c>
-      <c r="B3646" t="s">
-        <v>2</v>
+      <c r="B3646">
+        <v>0</v>
       </c>
     </row>
     <row r="3647" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3647" s="1">
         <v>45103.75</v>
       </c>
-      <c r="B3647" t="s">
-        <v>2</v>
+      <c r="B3647">
+        <v>0</v>
       </c>
     </row>
     <row r="3648" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3648" s="1">
         <v>45103.770833333336</v>
       </c>
-      <c r="B3648" t="s">
-        <v>2</v>
+      <c r="B3648">
+        <v>0</v>
       </c>
     </row>
     <row r="3649" spans="1:2" x14ac:dyDescent="0.35">
@@ -29643,7 +29643,7 @@
       <c r="A3650" s="1">
         <v>45104.395833333336</v>
       </c>
-      <c r="B3650" t="s">
+      <c r="B3650">
         <v>2</v>
       </c>
     </row>
@@ -29651,56 +29651,56 @@
       <c r="A3651" s="1">
         <v>45104.447916666664</v>
       </c>
-      <c r="B3651" t="s">
-        <v>2</v>
+      <c r="B3651">
+        <v>7</v>
       </c>
     </row>
     <row r="3652" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3652" s="1">
         <v>45104.572916666664</v>
       </c>
-      <c r="B3652" t="s">
-        <v>2</v>
+      <c r="B3652">
+        <v>11</v>
       </c>
     </row>
     <row r="3653" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3653" s="1">
         <v>45104.677083333336</v>
       </c>
-      <c r="B3653" t="s">
-        <v>2</v>
+      <c r="B3653">
+        <v>4</v>
       </c>
     </row>
     <row r="3654" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3654" s="1">
         <v>45104.739583333336</v>
       </c>
-      <c r="B3654" t="s">
-        <v>2</v>
+      <c r="B3654">
+        <v>4</v>
       </c>
     </row>
     <row r="3655" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3655" s="1">
         <v>45104.75</v>
       </c>
-      <c r="B3655" t="s">
-        <v>2</v>
+      <c r="B3655">
+        <v>4</v>
       </c>
     </row>
     <row r="3656" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3656" s="1">
         <v>45104.770833333336</v>
       </c>
-      <c r="B3656" t="s">
-        <v>2</v>
+      <c r="B3656">
+        <v>4</v>
       </c>
     </row>
     <row r="3657" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3657" s="1">
         <v>45104.78125</v>
       </c>
-      <c r="B3657" t="s">
-        <v>2</v>
+      <c r="B3657">
+        <v>4</v>
       </c>
     </row>
     <row r="3658" spans="1:2" x14ac:dyDescent="0.35">
@@ -29723,71 +29723,71 @@
       <c r="A3660" s="1">
         <v>45105.572916666664</v>
       </c>
-      <c r="B3660" t="s">
-        <v>2</v>
+      <c r="B3660">
+        <v>5</v>
       </c>
     </row>
     <row r="3661" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3661" s="1">
         <v>45105.677083333336</v>
       </c>
-      <c r="B3661" t="s">
-        <v>2</v>
+      <c r="B3661">
+        <v>4</v>
       </c>
     </row>
     <row r="3662" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3662" s="1">
         <v>45105.739583333336</v>
       </c>
-      <c r="B3662" t="s">
-        <v>2</v>
+      <c r="B3662">
+        <v>3</v>
       </c>
     </row>
     <row r="3663" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3663" s="1">
         <v>45105.75</v>
       </c>
-      <c r="B3663" t="s">
-        <v>2</v>
+      <c r="B3663">
+        <v>3</v>
       </c>
     </row>
     <row r="3664" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3664" s="1">
         <v>45105.770833333336</v>
       </c>
-      <c r="B3664" t="s">
-        <v>2</v>
+      <c r="B3664">
+        <v>1</v>
       </c>
     </row>
     <row r="3665" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3665" s="1">
         <v>45105.78125</v>
       </c>
-      <c r="B3665" t="s">
-        <v>2</v>
+      <c r="B3665">
+        <v>1</v>
       </c>
     </row>
     <row r="3666" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3666" s="1">
         <v>45106.395833333336</v>
       </c>
-      <c r="B3666" t="s">
-        <v>2</v>
+      <c r="B3666">
+        <v>1</v>
       </c>
     </row>
     <row r="3667" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3667" s="1">
         <v>45106.447916666664</v>
       </c>
-      <c r="B3667" t="s">
-        <v>2</v>
+      <c r="B3667">
+        <v>5</v>
       </c>
     </row>
     <row r="3668" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3668" s="1">
         <v>45106.572916666664</v>
       </c>
-      <c r="B3668" t="s">
+      <c r="B3668">
         <v>2</v>
       </c>
     </row>
@@ -29795,72 +29795,72 @@
       <c r="A3669" s="1">
         <v>45106.677083333336</v>
       </c>
-      <c r="B3669" t="s">
-        <v>2</v>
+      <c r="B3669">
+        <v>3</v>
       </c>
     </row>
     <row r="3670" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3670" s="1">
         <v>45106.739583333336</v>
       </c>
-      <c r="B3670" t="s">
-        <v>2</v>
+      <c r="B3670">
+        <v>0</v>
       </c>
     </row>
     <row r="3671" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3671" s="1">
         <v>45106.75</v>
       </c>
-      <c r="B3671" t="s">
-        <v>2</v>
+      <c r="B3671">
+        <v>0</v>
       </c>
     </row>
     <row r="3672" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3672" s="1">
         <v>45106.770833333336</v>
       </c>
-      <c r="B3672" t="s">
-        <v>2</v>
+      <c r="B3672">
+        <v>1</v>
       </c>
     </row>
     <row r="3673" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3673" s="1">
         <v>45106.78125</v>
       </c>
-      <c r="B3673" t="s">
-        <v>2</v>
+      <c r="B3673">
+        <v>0</v>
       </c>
     </row>
     <row r="3674" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3674" s="1">
         <v>45107.395833333336</v>
       </c>
-      <c r="B3674" t="s">
-        <v>2</v>
+      <c r="B3674">
+        <v>0</v>
       </c>
     </row>
     <row r="3675" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3675" s="1">
         <v>45107.447916666664</v>
       </c>
-      <c r="B3675" t="s">
-        <v>2</v>
+      <c r="B3675">
+        <v>0</v>
       </c>
     </row>
     <row r="3676" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3676" s="1">
         <v>45107.572916666664</v>
       </c>
-      <c r="B3676" t="s">
-        <v>2</v>
+      <c r="B3676">
+        <v>0</v>
       </c>
     </row>
     <row r="3677" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3677" s="1">
         <v>45107.677083333336</v>
       </c>
-      <c r="B3677" t="s">
-        <v>2</v>
+      <c r="B3677">
+        <v>0</v>
       </c>
     </row>
     <row r="3678" spans="1:2" x14ac:dyDescent="0.35">
@@ -30027,47 +30027,47 @@
       <c r="A3698" s="1">
         <v>45110.395833333336</v>
       </c>
-      <c r="B3698" t="s">
-        <v>2</v>
+      <c r="B3698">
+        <v>1</v>
       </c>
     </row>
     <row r="3699" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3699" s="1">
         <v>45110.447916666664</v>
       </c>
-      <c r="B3699" t="s">
-        <v>2</v>
+      <c r="B3699">
+        <v>5</v>
       </c>
     </row>
     <row r="3700" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3700" s="1">
         <v>45110.572916666664</v>
       </c>
-      <c r="B3700" t="s">
-        <v>2</v>
+      <c r="B3700">
+        <v>4</v>
       </c>
     </row>
     <row r="3701" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3701" s="1">
         <v>45110.677083333336</v>
       </c>
-      <c r="B3701" t="s">
-        <v>2</v>
+      <c r="B3701">
+        <v>4</v>
       </c>
     </row>
     <row r="3702" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3702" s="1">
         <v>45110.739583333336</v>
       </c>
-      <c r="B3702" t="s">
-        <v>2</v>
+      <c r="B3702">
+        <v>1</v>
       </c>
     </row>
     <row r="3703" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3703" s="1">
         <v>45110.75</v>
       </c>
-      <c r="B3703" t="s">
+      <c r="B3703">
         <v>2</v>
       </c>
     </row>
@@ -30075,7 +30075,7 @@
       <c r="A3704" s="1">
         <v>45110.770833333336</v>
       </c>
-      <c r="B3704" t="s">
+      <c r="B3704">
         <v>2</v>
       </c>
     </row>
@@ -30083,72 +30083,72 @@
       <c r="A3705" s="1">
         <v>45110.78125</v>
       </c>
-      <c r="B3705" t="s">
-        <v>2</v>
+      <c r="B3705">
+        <v>1</v>
       </c>
     </row>
     <row r="3706" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3706" s="1">
         <v>45111.395833333336</v>
       </c>
-      <c r="B3706" t="s">
-        <v>2</v>
+      <c r="B3706">
+        <v>1</v>
       </c>
     </row>
     <row r="3707" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3707" s="1">
         <v>45111.447916666664</v>
       </c>
-      <c r="B3707" t="s">
-        <v>2</v>
+      <c r="B3707">
+        <v>7</v>
       </c>
     </row>
     <row r="3708" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3708" s="1">
         <v>45111.572916666664</v>
       </c>
-      <c r="B3708" t="s">
-        <v>2</v>
+      <c r="B3708">
+        <v>10</v>
       </c>
     </row>
     <row r="3709" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3709" s="1">
         <v>45111.677083333336</v>
       </c>
-      <c r="B3709" t="s">
-        <v>2</v>
+      <c r="B3709">
+        <v>5</v>
       </c>
     </row>
     <row r="3710" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3710" s="1">
         <v>45111.739583333336</v>
       </c>
-      <c r="B3710" t="s">
-        <v>2</v>
+      <c r="B3710">
+        <v>1</v>
       </c>
     </row>
     <row r="3711" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3711" s="1">
         <v>45111.75</v>
       </c>
-      <c r="B3711" t="s">
-        <v>2</v>
+      <c r="B3711">
+        <v>1</v>
       </c>
     </row>
     <row r="3712" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3712" s="1">
         <v>45111.770833333336</v>
       </c>
-      <c r="B3712" t="s">
-        <v>2</v>
+      <c r="B3712">
+        <v>1</v>
       </c>
     </row>
     <row r="3713" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3713" s="1">
         <v>45111.78125</v>
       </c>
-      <c r="B3713" t="s">
-        <v>2</v>
+      <c r="B3713">
+        <v>1</v>
       </c>
     </row>
     <row r="3714" spans="1:2" x14ac:dyDescent="0.35">
@@ -30219,96 +30219,96 @@
       <c r="A3722" s="1">
         <v>45113.395833333336</v>
       </c>
-      <c r="B3722" t="s">
-        <v>2</v>
+      <c r="B3722">
+        <v>1</v>
       </c>
     </row>
     <row r="3723" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3723" s="1">
         <v>45113.447916666664</v>
       </c>
-      <c r="B3723" t="s">
-        <v>2</v>
+      <c r="B3723">
+        <v>5</v>
       </c>
     </row>
     <row r="3724" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3724" s="1">
         <v>45113.572916666664</v>
       </c>
-      <c r="B3724" t="s">
-        <v>2</v>
+      <c r="B3724">
+        <v>6</v>
       </c>
     </row>
     <row r="3725" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3725" s="1">
         <v>45113.677083333336</v>
       </c>
-      <c r="B3725" t="s">
-        <v>2</v>
+      <c r="B3725">
+        <v>4</v>
       </c>
     </row>
     <row r="3726" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3726" s="1">
         <v>45113.739583333336</v>
       </c>
-      <c r="B3726" t="s">
-        <v>2</v>
+      <c r="B3726">
+        <v>1</v>
       </c>
     </row>
     <row r="3727" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3727" s="1">
         <v>45113.75</v>
       </c>
-      <c r="B3727" t="s">
-        <v>2</v>
+      <c r="B3727">
+        <v>1</v>
       </c>
     </row>
     <row r="3728" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3728" s="1">
         <v>45113.770833333336</v>
       </c>
-      <c r="B3728" t="s">
-        <v>2</v>
+      <c r="B3728">
+        <v>0</v>
       </c>
     </row>
     <row r="3729" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3729" s="1">
         <v>45113.78125</v>
       </c>
-      <c r="B3729" t="s">
-        <v>2</v>
+      <c r="B3729">
+        <v>1</v>
       </c>
     </row>
     <row r="3730" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3730" s="1">
         <v>45114.395833333336</v>
       </c>
-      <c r="B3730" t="s">
-        <v>2</v>
+      <c r="B3730">
+        <v>3</v>
       </c>
     </row>
     <row r="3731" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3731" s="1">
         <v>45114.447916666664</v>
       </c>
-      <c r="B3731" t="s">
-        <v>2</v>
+      <c r="B3731">
+        <v>6</v>
       </c>
     </row>
     <row r="3732" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3732" s="1">
         <v>45114.572916666664</v>
       </c>
-      <c r="B3732" t="s">
-        <v>2</v>
+      <c r="B3732">
+        <v>4</v>
       </c>
     </row>
     <row r="3733" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3733" s="1">
         <v>45114.677083333336</v>
       </c>
-      <c r="B3733" t="s">
-        <v>2</v>
+      <c r="B3733">
+        <v>5</v>
       </c>
     </row>
     <row r="3734" spans="1:2" x14ac:dyDescent="0.35">
@@ -30475,103 +30475,103 @@
       <c r="A3754" s="1">
         <v>45117.395833333336</v>
       </c>
-      <c r="B3754" t="s">
-        <v>2</v>
+      <c r="B3754">
+        <v>3</v>
       </c>
     </row>
     <row r="3755" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3755" s="1">
         <v>45117.447916666664</v>
       </c>
-      <c r="B3755" t="s">
-        <v>2</v>
+      <c r="B3755">
+        <v>9</v>
       </c>
     </row>
     <row r="3756" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3756" s="1">
         <v>45117.572916666664</v>
       </c>
-      <c r="B3756" t="s">
-        <v>2</v>
+      <c r="B3756">
+        <v>11</v>
       </c>
     </row>
     <row r="3757" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3757" s="1">
         <v>45117.677083333336</v>
       </c>
-      <c r="B3757" t="s">
-        <v>2</v>
+      <c r="B3757">
+        <v>12</v>
       </c>
     </row>
     <row r="3758" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3758" s="1">
         <v>45117.739583333336</v>
       </c>
-      <c r="B3758" t="s">
-        <v>2</v>
+      <c r="B3758">
+        <v>5</v>
       </c>
     </row>
     <row r="3759" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3759" s="1">
         <v>45117.75</v>
       </c>
-      <c r="B3759" t="s">
-        <v>2</v>
+      <c r="B3759">
+        <v>4</v>
       </c>
     </row>
     <row r="3760" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3760" s="1">
         <v>45117.770833333336</v>
       </c>
-      <c r="B3760" t="s">
-        <v>2</v>
+      <c r="B3760">
+        <v>0</v>
       </c>
     </row>
     <row r="3761" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3761" s="1">
         <v>45117.78125</v>
       </c>
-      <c r="B3761" t="s">
-        <v>2</v>
+      <c r="B3761">
+        <v>0</v>
       </c>
     </row>
     <row r="3762" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3762" s="1">
         <v>45118.395833333336</v>
       </c>
-      <c r="B3762" t="s">
-        <v>2</v>
+      <c r="B3762">
+        <v>4</v>
       </c>
     </row>
     <row r="3763" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3763" s="1">
         <v>45118.447916666664</v>
       </c>
-      <c r="B3763" t="s">
-        <v>2</v>
+      <c r="B3763">
+        <v>6</v>
       </c>
     </row>
     <row r="3764" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3764" s="1">
         <v>45118.572916666664</v>
       </c>
-      <c r="B3764" t="s">
-        <v>2</v>
+      <c r="B3764">
+        <v>9</v>
       </c>
     </row>
     <row r="3765" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3765" s="1">
         <v>45118.677083333336</v>
       </c>
-      <c r="B3765" t="s">
-        <v>2</v>
+      <c r="B3765">
+        <v>8</v>
       </c>
     </row>
     <row r="3766" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3766" s="1">
         <v>45118.739583333336</v>
       </c>
-      <c r="B3766" t="s">
+      <c r="B3766">
         <v>2</v>
       </c>
     </row>
@@ -30579,7 +30579,7 @@
       <c r="A3767" s="1">
         <v>45118.75</v>
       </c>
-      <c r="B3767" t="s">
+      <c r="B3767">
         <v>2</v>
       </c>
     </row>
@@ -30587,7 +30587,7 @@
       <c r="A3768" s="1">
         <v>45118.770833333336</v>
       </c>
-      <c r="B3768" t="s">
+      <c r="B3768">
         <v>2</v>
       </c>
     </row>
@@ -30595,55 +30595,55 @@
       <c r="A3769" s="1">
         <v>45118.78125</v>
       </c>
-      <c r="B3769" t="s">
-        <v>2</v>
+      <c r="B3769">
+        <v>1</v>
       </c>
     </row>
     <row r="3770" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3770" s="1">
         <v>45119.395833333336</v>
       </c>
-      <c r="B3770" t="s">
-        <v>2</v>
+      <c r="B3770">
+        <v>4</v>
       </c>
     </row>
     <row r="3771" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3771" s="1">
         <v>45119.447916666664</v>
       </c>
-      <c r="B3771" t="s">
-        <v>2</v>
+      <c r="B3771">
+        <v>3</v>
       </c>
     </row>
     <row r="3772" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3772" s="1">
         <v>45119.572916666664</v>
       </c>
-      <c r="B3772" t="s">
-        <v>2</v>
+      <c r="B3772">
+        <v>12</v>
       </c>
     </row>
     <row r="3773" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3773" s="1">
         <v>45119.677083333336</v>
       </c>
-      <c r="B3773" t="s">
-        <v>2</v>
+      <c r="B3773">
+        <v>13</v>
       </c>
     </row>
     <row r="3774" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3774" s="1">
         <v>45119.739583333336</v>
       </c>
-      <c r="B3774" t="s">
-        <v>2</v>
+      <c r="B3774">
+        <v>4</v>
       </c>
     </row>
     <row r="3775" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3775" s="1">
         <v>45119.75</v>
       </c>
-      <c r="B3775" t="s">
+      <c r="B3775">
         <v>2</v>
       </c>
     </row>
@@ -30651,23 +30651,23 @@
       <c r="A3776" s="1">
         <v>45119.770833333336</v>
       </c>
-      <c r="B3776" t="s">
-        <v>2</v>
+      <c r="B3776">
+        <v>1</v>
       </c>
     </row>
     <row r="3777" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3777" s="1">
         <v>45119.78125</v>
       </c>
-      <c r="B3777" t="s">
-        <v>2</v>
+      <c r="B3777">
+        <v>1</v>
       </c>
     </row>
     <row r="3778" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3778" s="1">
         <v>45120.395833333336</v>
       </c>
-      <c r="B3778" t="s">
+      <c r="B3778">
         <v>2</v>
       </c>
     </row>
@@ -30675,31 +30675,31 @@
       <c r="A3779" s="1">
         <v>45120.447916666664</v>
       </c>
-      <c r="B3779" t="s">
-        <v>2</v>
+      <c r="B3779">
+        <v>7</v>
       </c>
     </row>
     <row r="3780" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3780" s="1">
         <v>45120.572916666664</v>
       </c>
-      <c r="B3780" t="s">
-        <v>2</v>
+      <c r="B3780">
+        <v>5</v>
       </c>
     </row>
     <row r="3781" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3781" s="1">
         <v>45120.677083333336</v>
       </c>
-      <c r="B3781" t="s">
-        <v>2</v>
+      <c r="B3781">
+        <v>7</v>
       </c>
     </row>
     <row r="3782" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3782" s="1">
         <v>45120.739583333336</v>
       </c>
-      <c r="B3782" t="s">
+      <c r="B3782">
         <v>2</v>
       </c>
     </row>
@@ -30707,7 +30707,7 @@
       <c r="A3783" s="1">
         <v>45120.75</v>
       </c>
-      <c r="B3783" t="s">
+      <c r="B3783">
         <v>2</v>
       </c>
     </row>
@@ -30715,7 +30715,7 @@
       <c r="A3784" s="1">
         <v>45120.770833333336</v>
       </c>
-      <c r="B3784" t="s">
+      <c r="B3784">
         <v>2</v>
       </c>
     </row>
@@ -30723,7 +30723,7 @@
       <c r="A3785" s="1">
         <v>45120.78125</v>
       </c>
-      <c r="B3785" t="s">
+      <c r="B3785">
         <v>2</v>
       </c>
     </row>
@@ -30731,32 +30731,32 @@
       <c r="A3786" s="1">
         <v>45121.395833333336</v>
       </c>
-      <c r="B3786" t="s">
-        <v>2</v>
+      <c r="B3786">
+        <v>0</v>
       </c>
     </row>
     <row r="3787" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3787" s="1">
         <v>45121.447916666664</v>
       </c>
-      <c r="B3787" t="s">
-        <v>2</v>
+      <c r="B3787">
+        <v>0</v>
       </c>
     </row>
     <row r="3788" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3788" s="1">
         <v>45121.572916666664</v>
       </c>
-      <c r="B3788" t="s">
-        <v>2</v>
+      <c r="B3788">
+        <v>3</v>
       </c>
     </row>
     <row r="3789" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3789" s="1">
         <v>45121.677083333336</v>
       </c>
-      <c r="B3789" t="s">
-        <v>2</v>
+      <c r="B3789">
+        <v>4</v>
       </c>
     </row>
     <row r="3790" spans="1:2" x14ac:dyDescent="0.35">
@@ -30923,263 +30923,263 @@
       <c r="A3810" s="1">
         <v>45124.395833333336</v>
       </c>
-      <c r="B3810" t="s">
-        <v>2</v>
+      <c r="B3810">
+        <v>1</v>
       </c>
     </row>
     <row r="3811" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3811" s="1">
         <v>45124.447916666664</v>
       </c>
-      <c r="B3811" t="s">
-        <v>2</v>
+      <c r="B3811">
+        <v>6</v>
       </c>
     </row>
     <row r="3812" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3812" s="1">
         <v>45124.572916666664</v>
       </c>
-      <c r="B3812" t="s">
-        <v>2</v>
+      <c r="B3812">
+        <v>6</v>
       </c>
     </row>
     <row r="3813" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3813" s="1">
         <v>45124.677083333336</v>
       </c>
-      <c r="B3813" t="s">
-        <v>2</v>
+      <c r="B3813">
+        <v>14</v>
       </c>
     </row>
     <row r="3814" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3814" s="1">
         <v>45124.739583333336</v>
       </c>
-      <c r="B3814" t="s">
-        <v>2</v>
+      <c r="B3814">
+        <v>11</v>
       </c>
     </row>
     <row r="3815" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3815" s="1">
         <v>45124.75</v>
       </c>
-      <c r="B3815" t="s">
-        <v>2</v>
+      <c r="B3815">
+        <v>10</v>
       </c>
     </row>
     <row r="3816" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3816" s="1">
         <v>45124.770833333336</v>
       </c>
-      <c r="B3816" t="s">
-        <v>2</v>
+      <c r="B3816">
+        <v>8</v>
       </c>
     </row>
     <row r="3817" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3817" s="1">
         <v>45124.78125</v>
       </c>
-      <c r="B3817" t="s">
-        <v>2</v>
+      <c r="B3817">
+        <v>3</v>
       </c>
     </row>
     <row r="3818" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3818" s="1">
         <v>45125.395833333336</v>
       </c>
-      <c r="B3818" t="s">
-        <v>2</v>
+      <c r="B3818">
+        <v>1</v>
       </c>
     </row>
     <row r="3819" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3819" s="1">
         <v>45125.447916666664</v>
       </c>
-      <c r="B3819" t="s">
-        <v>2</v>
+      <c r="B3819">
+        <v>4</v>
       </c>
     </row>
     <row r="3820" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3820" s="1">
         <v>45125.572916666664</v>
       </c>
-      <c r="B3820" t="s">
-        <v>2</v>
+      <c r="B3820">
+        <v>8</v>
       </c>
     </row>
     <row r="3821" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3821" s="1">
         <v>45125.677083333336</v>
       </c>
-      <c r="B3821" t="s">
-        <v>2</v>
+      <c r="B3821">
+        <v>11</v>
       </c>
     </row>
     <row r="3822" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3822" s="1">
         <v>45125.739583333336</v>
       </c>
-      <c r="B3822" t="s">
-        <v>2</v>
+      <c r="B3822">
+        <v>11</v>
       </c>
     </row>
     <row r="3823" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3823" s="1">
         <v>45125.75</v>
       </c>
-      <c r="B3823" t="s">
-        <v>2</v>
+      <c r="B3823">
+        <v>13</v>
       </c>
     </row>
     <row r="3824" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3824" s="1">
         <v>45125.770833333336</v>
       </c>
-      <c r="B3824" t="s">
-        <v>2</v>
+      <c r="B3824">
+        <v>3</v>
       </c>
     </row>
     <row r="3825" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3825" s="1">
         <v>45125.78125</v>
       </c>
-      <c r="B3825" t="s">
-        <v>2</v>
+      <c r="B3825">
+        <v>3</v>
       </c>
     </row>
     <row r="3826" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3826" s="1">
         <v>45126.395833333336</v>
       </c>
-      <c r="B3826" t="s">
-        <v>2</v>
+      <c r="B3826">
+        <v>5</v>
       </c>
     </row>
     <row r="3827" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3827" s="1">
         <v>45126.447916666664</v>
       </c>
-      <c r="B3827" t="s">
-        <v>2</v>
+      <c r="B3827">
+        <v>7</v>
       </c>
     </row>
     <row r="3828" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3828" s="1">
         <v>45126.572916666664</v>
       </c>
-      <c r="B3828" t="s">
-        <v>2</v>
+      <c r="B3828">
+        <v>14</v>
       </c>
     </row>
     <row r="3829" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3829" s="1">
         <v>45126.677083333336</v>
       </c>
-      <c r="B3829" t="s">
-        <v>2</v>
+      <c r="B3829">
+        <v>13</v>
       </c>
     </row>
     <row r="3830" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3830" s="1">
         <v>45126.739583333336</v>
       </c>
-      <c r="B3830" t="s">
-        <v>2</v>
+      <c r="B3830">
+        <v>9</v>
       </c>
     </row>
     <row r="3831" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3831" s="1">
         <v>45126.75</v>
       </c>
-      <c r="B3831" t="s">
-        <v>2</v>
+      <c r="B3831">
+        <v>8</v>
       </c>
     </row>
     <row r="3832" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3832" s="1">
         <v>45126.770833333336</v>
       </c>
-      <c r="B3832" t="s">
-        <v>2</v>
+      <c r="B3832">
+        <v>8</v>
       </c>
     </row>
     <row r="3833" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3833" s="1">
         <v>45126.78125</v>
       </c>
-      <c r="B3833" t="s">
-        <v>2</v>
+      <c r="B3833">
+        <v>3</v>
       </c>
     </row>
     <row r="3834" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3834" s="1">
         <v>45127.395833333336</v>
       </c>
-      <c r="B3834" t="s">
-        <v>2</v>
+      <c r="B3834">
+        <v>5</v>
       </c>
     </row>
     <row r="3835" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3835" s="1">
         <v>45127.447916666664</v>
       </c>
-      <c r="B3835" t="s">
-        <v>2</v>
+      <c r="B3835">
+        <v>17</v>
       </c>
     </row>
     <row r="3836" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3836" s="1">
         <v>45127.572916666664</v>
       </c>
-      <c r="B3836" t="s">
-        <v>2</v>
+      <c r="B3836">
+        <v>12</v>
       </c>
     </row>
     <row r="3837" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3837" s="1">
         <v>45127.677083333336</v>
       </c>
-      <c r="B3837" t="s">
-        <v>2</v>
+      <c r="B3837">
+        <v>14</v>
       </c>
     </row>
     <row r="3838" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3838" s="1">
         <v>45127.739583333336</v>
       </c>
-      <c r="B3838" t="s">
-        <v>2</v>
+      <c r="B3838">
+        <v>10</v>
       </c>
     </row>
     <row r="3839" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3839" s="1">
         <v>45127.75</v>
       </c>
-      <c r="B3839" t="s">
-        <v>2</v>
+      <c r="B3839">
+        <v>10</v>
       </c>
     </row>
     <row r="3840" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3840" s="1">
         <v>45127.770833333336</v>
       </c>
-      <c r="B3840" t="s">
-        <v>2</v>
+      <c r="B3840">
+        <v>9</v>
       </c>
     </row>
     <row r="3841" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3841" s="1">
         <v>45127.78125</v>
       </c>
-      <c r="B3841" t="s">
-        <v>2</v>
+      <c r="B3841">
+        <v>8</v>
       </c>
     </row>
     <row r="3842" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3842" s="1">
         <v>45128.395833333336</v>
       </c>
-      <c r="B3842" t="s">
+      <c r="B3842">
         <v>2</v>
       </c>
     </row>
@@ -31187,15 +31187,15 @@
       <c r="A3843" s="1">
         <v>45128.447916666664</v>
       </c>
-      <c r="B3843" t="s">
-        <v>2</v>
+      <c r="B3843">
+        <v>6</v>
       </c>
     </row>
     <row r="3844" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3844" s="1">
         <v>45128.572916666664</v>
       </c>
-      <c r="B3844" t="s">
+      <c r="B3844">
         <v>2</v>
       </c>
     </row>
@@ -31203,8 +31203,8 @@
       <c r="A3845" s="1">
         <v>45128.677083333336</v>
       </c>
-      <c r="B3845" t="s">
-        <v>2</v>
+      <c r="B3845">
+        <v>6</v>
       </c>
     </row>
     <row r="3846" spans="1:2" x14ac:dyDescent="0.35">
@@ -31371,39 +31371,39 @@
       <c r="A3866" s="1">
         <v>45131.395833333336</v>
       </c>
-      <c r="B3866" t="s">
-        <v>2</v>
+      <c r="B3866">
+        <v>5</v>
       </c>
     </row>
     <row r="3867" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3867" s="1">
         <v>45131.447916666664</v>
       </c>
-      <c r="B3867" t="s">
-        <v>2</v>
+      <c r="B3867">
+        <v>7</v>
       </c>
     </row>
     <row r="3868" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3868" s="1">
         <v>45131.572916666664</v>
       </c>
-      <c r="B3868" t="s">
-        <v>2</v>
+      <c r="B3868">
+        <v>11</v>
       </c>
     </row>
     <row r="3869" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3869" s="1">
         <v>45131.677083333336</v>
       </c>
-      <c r="B3869" t="s">
-        <v>2</v>
+      <c r="B3869">
+        <v>16</v>
       </c>
     </row>
     <row r="3870" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3870" s="1">
         <v>45131.739583333336</v>
       </c>
-      <c r="B3870" t="s">
+      <c r="B3870">
         <v>2</v>
       </c>
     </row>
@@ -31411,15 +31411,15 @@
       <c r="A3871" s="1">
         <v>45131.75</v>
       </c>
-      <c r="B3871" t="s">
-        <v>2</v>
+      <c r="B3871">
+        <v>9</v>
       </c>
     </row>
     <row r="3872" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3872" s="1">
         <v>45131.770833333336</v>
       </c>
-      <c r="B3872" t="s">
+      <c r="B3872">
         <v>2</v>
       </c>
     </row>
@@ -31427,7 +31427,7 @@
       <c r="A3873" s="1">
         <v>45131.78125</v>
       </c>
-      <c r="B3873" t="s">
+      <c r="B3873">
         <v>2</v>
       </c>
     </row>
@@ -31435,55 +31435,55 @@
       <c r="A3874" s="1">
         <v>45132.395833333336</v>
       </c>
-      <c r="B3874" t="s">
-        <v>2</v>
+      <c r="B3874">
+        <v>3</v>
       </c>
     </row>
     <row r="3875" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3875" s="1">
         <v>45132.447916666664</v>
       </c>
-      <c r="B3875" t="s">
-        <v>2</v>
+      <c r="B3875">
+        <v>10</v>
       </c>
     </row>
     <row r="3876" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3876" s="1">
         <v>45132.572916666664</v>
       </c>
-      <c r="B3876" t="s">
-        <v>2</v>
+      <c r="B3876">
+        <v>6</v>
       </c>
     </row>
     <row r="3877" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3877" s="1">
         <v>45132.677083333336</v>
       </c>
-      <c r="B3877" t="s">
-        <v>2</v>
+      <c r="B3877">
+        <v>6</v>
       </c>
     </row>
     <row r="3878" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3878" s="1">
         <v>45132.739583333336</v>
       </c>
-      <c r="B3878" t="s">
-        <v>2</v>
+      <c r="B3878">
+        <v>5</v>
       </c>
     </row>
     <row r="3879" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3879" s="1">
         <v>45132.75</v>
       </c>
-      <c r="B3879" t="s">
-        <v>2</v>
+      <c r="B3879">
+        <v>5</v>
       </c>
     </row>
     <row r="3880" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3880" s="1">
         <v>45132.770833333336</v>
       </c>
-      <c r="B3880" t="s">
+      <c r="B3880">
         <v>2</v>
       </c>
     </row>
@@ -31491,7 +31491,7 @@
       <c r="A3881" s="1">
         <v>45132.78125</v>
       </c>
-      <c r="B3881" t="s">
+      <c r="B3881">
         <v>2</v>
       </c>
     </row>
@@ -31499,111 +31499,111 @@
       <c r="A3882" s="1">
         <v>45133.395833333336</v>
       </c>
-      <c r="B3882" t="s">
-        <v>2</v>
+      <c r="B3882">
+        <v>4</v>
       </c>
     </row>
     <row r="3883" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3883" s="1">
         <v>45133.447916666664</v>
       </c>
-      <c r="B3883" t="s">
-        <v>2</v>
+      <c r="B3883">
+        <v>8</v>
       </c>
     </row>
     <row r="3884" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3884" s="1">
         <v>45133.572916666664</v>
       </c>
-      <c r="B3884" t="s">
-        <v>2</v>
+      <c r="B3884">
+        <v>10</v>
       </c>
     </row>
     <row r="3885" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3885" s="1">
         <v>45133.677083333336</v>
       </c>
-      <c r="B3885" t="s">
-        <v>2</v>
+      <c r="B3885">
+        <v>11</v>
       </c>
     </row>
     <row r="3886" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3886" s="1">
         <v>45133.739583333336</v>
       </c>
-      <c r="B3886" t="s">
-        <v>2</v>
+      <c r="B3886">
+        <v>1</v>
       </c>
     </row>
     <row r="3887" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3887" s="1">
         <v>45133.75</v>
       </c>
-      <c r="B3887" t="s">
-        <v>2</v>
+      <c r="B3887">
+        <v>3</v>
       </c>
     </row>
     <row r="3888" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3888" s="1">
         <v>45133.770833333336</v>
       </c>
-      <c r="B3888" t="s">
-        <v>2</v>
+      <c r="B3888">
+        <v>1</v>
       </c>
     </row>
     <row r="3889" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3889" s="1">
         <v>45133.78125</v>
       </c>
-      <c r="B3889" t="s">
-        <v>2</v>
+      <c r="B3889">
+        <v>1</v>
       </c>
     </row>
     <row r="3890" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3890" s="1">
         <v>45134.395833333336</v>
       </c>
-      <c r="B3890" t="s">
-        <v>2</v>
+      <c r="B3890">
+        <v>4</v>
       </c>
     </row>
     <row r="3891" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3891" s="1">
         <v>45134.447916666664</v>
       </c>
-      <c r="B3891" t="s">
-        <v>2</v>
+      <c r="B3891">
+        <v>10</v>
       </c>
     </row>
     <row r="3892" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3892" s="1">
         <v>45134.572916666664</v>
       </c>
-      <c r="B3892" t="s">
-        <v>2</v>
+      <c r="B3892">
+        <v>4</v>
       </c>
     </row>
     <row r="3893" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3893" s="1">
         <v>45134.677083333336</v>
       </c>
-      <c r="B3893" t="s">
-        <v>2</v>
+      <c r="B3893">
+        <v>5</v>
       </c>
     </row>
     <row r="3894" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3894" s="1">
         <v>45134.739583333336</v>
       </c>
-      <c r="B3894" t="s">
-        <v>2</v>
+      <c r="B3894">
+        <v>3</v>
       </c>
     </row>
     <row r="3895" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3895" s="1">
         <v>45134.75</v>
       </c>
-      <c r="B3895" t="s">
+      <c r="B3895">
         <v>2</v>
       </c>
     </row>
@@ -31611,7 +31611,7 @@
       <c r="A3896" s="1">
         <v>45134.770833333336</v>
       </c>
-      <c r="B3896" t="s">
+      <c r="B3896">
         <v>2</v>
       </c>
     </row>
@@ -31619,7 +31619,7 @@
       <c r="A3897" s="1">
         <v>45134.78125</v>
       </c>
-      <c r="B3897" t="s">
+      <c r="B3897">
         <v>2</v>
       </c>
     </row>
@@ -31819,56 +31819,56 @@
       <c r="A3922" s="1">
         <v>45138.395833333336</v>
       </c>
-      <c r="B3922" t="s">
-        <v>2</v>
+      <c r="B3922">
+        <v>5</v>
       </c>
     </row>
     <row r="3923" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3923" s="1">
         <v>45138.447916666664</v>
       </c>
-      <c r="B3923" t="s">
-        <v>2</v>
+      <c r="B3923">
+        <v>7</v>
       </c>
     </row>
     <row r="3924" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3924" s="1">
         <v>45138.572916666664</v>
       </c>
-      <c r="B3924" t="s">
-        <v>2</v>
+      <c r="B3924">
+        <v>5</v>
       </c>
     </row>
     <row r="3925" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3925" s="1">
         <v>45138.677083333336</v>
       </c>
-      <c r="B3925" t="s">
-        <v>2</v>
+      <c r="B3925">
+        <v>6</v>
       </c>
     </row>
     <row r="3926" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3926" s="1">
         <v>45138.739583333336</v>
       </c>
-      <c r="B3926" t="s">
-        <v>2</v>
+      <c r="B3926">
+        <v>6</v>
       </c>
     </row>
     <row r="3927" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3927" s="1">
         <v>45138.75</v>
       </c>
-      <c r="B3927" t="s">
-        <v>2</v>
+      <c r="B3927">
+        <v>6</v>
       </c>
     </row>
     <row r="3928" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3928" s="1">
         <v>45138.770833333336</v>
       </c>
-      <c r="B3928" t="s">
-        <v>2</v>
+      <c r="B3928">
+        <v>5</v>
       </c>
     </row>
     <row r="3929" spans="1:2" x14ac:dyDescent="0.35">
